--- a/NIHSummary.xlsx
+++ b/NIHSummary.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayley/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D61CF4-A95C-5643-B5D6-D1816E46C0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8EC514-0FA0-D94F-BB4E-DC950F946B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8240" yWindow="2560" windowWidth="24740" windowHeight="19240" xr2:uid="{353E88A6-2A1D-0C42-A634-75A4DCE641B0}"/>
+    <workbookView xWindow="5480" yWindow="1500" windowWidth="27500" windowHeight="20300" xr2:uid="{353E88A6-2A1D-0C42-A634-75A4DCE641B0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="8" r:id="rId1"/>
-    <sheet name="medpar_msdrg_cd" sheetId="1" r:id="rId2"/>
-    <sheet name="medpar_prcdr_cd10" sheetId="2" r:id="rId3"/>
-    <sheet name="medpar_prcdr_cd9" sheetId="3" r:id="rId4"/>
+    <sheet name="dgns_cd9" sheetId="6" r:id="rId2"/>
+    <sheet name="dgns_cd10" sheetId="7" r:id="rId3"/>
+    <sheet name="dgns_cd910" sheetId="10" r:id="rId4"/>
     <sheet name="op_hcpcs" sheetId="4" r:id="rId5"/>
     <sheet name="op_rev" sheetId="5" r:id="rId6"/>
-    <sheet name="dgns_cd9" sheetId="6" r:id="rId7"/>
-    <sheet name="dgns_cd10" sheetId="7" r:id="rId8"/>
+    <sheet name="medpar_prcdr_cd9" sheetId="3" r:id="rId7"/>
+    <sheet name="medpar_prcdr_cd10" sheetId="2" r:id="rId8"/>
+    <sheet name="medpar_prcdr_cd910" sheetId="9" r:id="rId9"/>
+    <sheet name="medpar_msdrg_cd" sheetId="1" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="144">
   <si>
     <t>Year</t>
   </si>
@@ -60,9 +62,6 @@
     <t>Percentage</t>
   </si>
   <si>
-    <t>all_trama_scaled</t>
-  </si>
-  <si>
     <t>alldgns_cd9</t>
   </si>
   <si>
@@ -276,12 +275,6 @@
     <t>medpar_msdrg_cd</t>
   </si>
   <si>
-    <t>Sheet</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Medpar, MS-DRG codes - adopted October 1, 2007</t>
   </si>
   <si>
@@ -309,9 +302,6 @@
     <t>medpar_prcdr_cd9</t>
   </si>
   <si>
-    <t>8415， 8446</t>
-  </si>
-  <si>
     <t>other amputation below knee, fitting of prosthesis below knee</t>
   </si>
   <si>
@@ -339,9 +329,6 @@
     <t>dgns_cd9</t>
   </si>
   <si>
-    <t>Medpar &amp; Outpatient &amp; PartB, ICD-9 diagnosis codes</t>
-  </si>
-  <si>
     <t>V4975</t>
   </si>
   <si>
@@ -351,15 +338,6 @@
     <t>dgns_cd10</t>
   </si>
   <si>
-    <t>Medpar &amp; Outpatient &amp; PartB, ICD-10 diagnosis codes</t>
-  </si>
-  <si>
-    <t>S88~ </t>
-  </si>
-  <si>
-    <t>Traumatic amputation of lower leg, knee and below</t>
-  </si>
-  <si>
     <t>- Styling Convention</t>
   </si>
   <si>
@@ -369,10 +347,6 @@
     <t>Result Hightlight</t>
   </si>
   <si>
-    <t xml:space="preserve">This excel spreadsheet summarizes the statistics collected from the Dartmouth Atlas Project - NIH Medicare Claim data, 
-There are in total of 12 files containing Medpar, </t>
-  </si>
-  <si>
     <t>- Glossary</t>
   </si>
   <si>
@@ -385,10 +359,126 @@
     <t>Part B</t>
   </si>
   <si>
-    <t>Medicare Part B (Medical Insurance)</t>
-  </si>
-  <si>
     <t>Outpatient</t>
+  </si>
+  <si>
+    <t>Medpar &amp; PartB &amp; Outpatient, ICD-9 diagnosis codes</t>
+  </si>
+  <si>
+    <t>Medpart &amp; PartB &amp; Outpatien, ICD-10 diagnosis codes</t>
+  </si>
+  <si>
+    <t>Medicare Part B (Carrier)</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>- Other details</t>
+  </si>
+  <si>
+    <t>Durable Medical Equipment records</t>
+  </si>
+  <si>
+    <t>ICD9/ICD10 procedure codes</t>
+  </si>
+  <si>
+    <t>ICD9/ICD10 diagnosis codes</t>
+  </si>
+  <si>
+    <t>HCPCS codes</t>
+  </si>
+  <si>
+    <t>a) Source Files</t>
+  </si>
+  <si>
+    <t>b) Code Types</t>
+  </si>
+  <si>
+    <t>reason for seeking health care</t>
+  </si>
+  <si>
+    <t>MS-DRG</t>
+  </si>
+  <si>
+    <t>Note - The counts for DRG and MS-DRG are low for the year 2007 because of the switch from DRG to MS-DRG that occurred that year.</t>
+  </si>
+  <si>
+    <t>Also, please note, the transition from ICD-9 to ICD-10 occurred on October 1, 2015. That change will be reflected in the 2015 coding trends.</t>
+  </si>
+  <si>
+    <t>0-99</t>
+  </si>
+  <si>
+    <t>Age of beneficiaries</t>
+  </si>
+  <si>
+    <t>Year length</t>
+  </si>
+  <si>
+    <t>2004 - 2018</t>
+  </si>
+  <si>
+    <t>- Trends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This excel spreadsheet summarizes the statistics collected from the Dartmouth Atlas Project - NIH Medicare Claim data.
+Data are from Medical claims files: Medpar, PartB, Outpatient, with types of codes: diagonosis, procedure, revenue center, etc.
+The dgns_cd9/10 file contains the most relevant data to the study of below knee amputation market size, </t>
+  </si>
+  <si>
+    <t>inpatient treatment and services</t>
+  </si>
+  <si>
+    <t>outpatient services, procedures, products and equipments</t>
+  </si>
+  <si>
+    <t>medpar_prcdr_cd910</t>
+  </si>
+  <si>
+    <t>dgns_cd910</t>
+  </si>
+  <si>
+    <t>Aggregated diagnosis ICD-9/10</t>
+  </si>
+  <si>
+    <t>Aggregated procedure ICD-9/10</t>
+  </si>
+  <si>
+    <t>Acquired absence of leg below knee</t>
+  </si>
+  <si>
+    <t>8415, 8446</t>
+  </si>
+  <si>
+    <t>8415 = 0Y6H0~ + 0Y6J0~</t>
+  </si>
+  <si>
+    <t>Z89~</t>
+  </si>
+  <si>
+    <t>V4975 = Z89~</t>
+  </si>
+  <si>
+    <t>Sheet_name</t>
+  </si>
+  <si>
+    <t>General_description</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - code mapping between ICD9 and ICD 10 diagonosis code supported by: https://www.hipaaspace.com/medical_billing/crosswalk.services/icd-9.to.icd-10.mapping/v4975</t>
+  </si>
+  <si>
+    <t>Note: - code mapping between ICD9 and ICD 10 procedure code supported by: https://www.hipaaspace.com/medical_billing/crosswalk.services/icd-9.to.icd-10.mapping/8415</t>
+  </si>
+  <si>
+    <t>Click the sheet_name to see summarized statistics in the corresponding table</t>
+  </si>
+  <si>
+    <t>Medicare Severity Diagnosis Related Groups</t>
+  </si>
+  <si>
+    <t>Summary</t>
   </si>
 </sst>
 </file>
@@ -399,7 +489,7 @@
     <numFmt numFmtId="164" formatCode="###,###,###,###"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -433,20 +523,34 @@
       <name val="Albany AMT"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,19 +589,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAFBFE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,17 +639,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -572,32 +659,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -644,12 +711,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -684,40 +789,37 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1031,274 +1133,411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A62DE23-4D66-1E4F-A1AC-4723528D521C}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A6:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" customWidth="1"/>
-    <col min="3" max="3" width="47.83203125" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="15" customFormat="1"/>
-    <row r="2" spans="1:4" ht="16" customHeight="1">
-      <c r="A2" s="36" t="s">
+    <row r="6" spans="1:3" ht="19">
+      <c r="A6" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="16" customFormat="1" ht="16" customHeight="1">
+      <c r="A7" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="16" customFormat="1"/>
+    <row r="9" spans="1:3" s="16" customFormat="1"/>
+    <row r="10" spans="1:3" s="16" customFormat="1"/>
+    <row r="11" spans="1:3" s="16" customFormat="1"/>
+    <row r="13" spans="1:3" ht="19">
+      <c r="A13" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="16" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="14"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="14"/>
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="14"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="14"/>
+      <c r="C21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="14"/>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="14"/>
+      <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="14"/>
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="14"/>
+      <c r="C25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="14"/>
+      <c r="C26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="14"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="14"/>
+      <c r="B28" s="30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="14"/>
+      <c r="B29" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="14"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="18" customHeight="1">
+      <c r="B32" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="19"/>
+    </row>
+    <row r="33" spans="2:11" ht="18" customHeight="1">
+      <c r="B33" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D33" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="33"/>
+    </row>
+    <row r="34" spans="2:11" ht="18" customHeight="1">
+      <c r="B34" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="13"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="17"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="19" customFormat="1">
-      <c r="A29" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="34" t="s">
+      <c r="D34" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="22"/>
+    </row>
+    <row r="35" spans="2:11" ht="18" customHeight="1">
+      <c r="B35" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="22"/>
+    </row>
+    <row r="36" spans="2:11" ht="18" customHeight="1">
+      <c r="B36" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="22"/>
+    </row>
+    <row r="37" spans="2:11" ht="18" customHeight="1">
+      <c r="B37" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="22"/>
+    </row>
+    <row r="38" spans="2:11" ht="18" customHeight="1">
+      <c r="B38" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="22"/>
+    </row>
+    <row r="39" spans="2:11" ht="18" customHeight="1">
+      <c r="B39" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="22"/>
+    </row>
+    <row r="40" spans="2:11" ht="18" customHeight="1">
+      <c r="B40" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="22"/>
+    </row>
+    <row r="41" spans="2:11" ht="18" customHeight="1">
+      <c r="B41" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="E41" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="33"/>
-    </row>
-    <row r="30" spans="1:11" s="18" customFormat="1">
-      <c r="A30" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="23"/>
-    </row>
-    <row r="31" spans="1:11" s="18" customFormat="1">
-      <c r="A31" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="23"/>
-    </row>
-    <row r="32" spans="1:11" s="18" customFormat="1">
-      <c r="A32" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="23"/>
-    </row>
-    <row r="33" spans="1:11" s="18" customFormat="1">
-      <c r="A33" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="23"/>
-    </row>
-    <row r="34" spans="1:11" s="18" customFormat="1">
-      <c r="A34" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="23"/>
-    </row>
-    <row r="35" spans="1:11" s="18" customFormat="1">
-      <c r="A35" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="23"/>
-    </row>
-    <row r="36" spans="1:11" s="18" customFormat="1">
-      <c r="A36" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="23"/>
-    </row>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="25"/>
+    </row>
+    <row r="42" spans="2:11" ht="19" customHeight="1"/>
+    <row r="43" spans="2:11" ht="19" customHeight="1">
+      <c r="B43" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="19" customHeight="1">
+      <c r="B44" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="21" customHeight="1"/>
+    <row r="46" spans="2:11" ht="21" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:D6"/>
+    <mergeCell ref="A7:XFD11"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B41" location="medpar_msdrg_cd!A1" display="medpar_msdrg_cd" xr:uid="{321ED109-0165-1D45-9F91-0D552B2DDBC1}"/>
+    <hyperlink ref="B38" location="medpar_prcdr_cd9!A1" display="medpar_prcdr_cd9" xr:uid="{43C79C9C-ACE6-4E46-8AD4-61FD4D23121D}"/>
+    <hyperlink ref="B36" location="op_hcpcs!A1" display="op_hcpcs" xr:uid="{81A1D423-07C5-E84F-9961-48B7D9487A8F}"/>
+    <hyperlink ref="B37" location="op_rev!A1" display="op_rev" xr:uid="{BC3BDA6E-A0E6-014B-904D-E86E8419B68A}"/>
+    <hyperlink ref="B33" location="dgns_cd9!A1" display="dgns_cd9" xr:uid="{4B7A1AA3-D39A-104E-8A61-E2B2C1285305}"/>
+    <hyperlink ref="B35" location="dgns_cd10!A1" display="dgns_cd10" xr:uid="{F9DF8B5A-79EC-C648-90B6-1D15F438E08D}"/>
+    <hyperlink ref="B34" location="dgns_cd10!A1" display="dgns_cd10" xr:uid="{CD3B2925-3C7A-E743-921A-BA042BD9F39C}"/>
+    <hyperlink ref="B39" location="medpar_prcdr_cd10!A1" display="medpar_prcdr_cd10" xr:uid="{DAB98821-8287-444E-9447-87F558BA2B3D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AD3F94-C563-354F-A187-1324E61AB9CC}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1311,17 +1550,17 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1526,6 +1765,629 @@
       </c>
       <c r="E13" s="5">
         <v>17670</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A88FD33-A61D-0F40-929F-6D30BBBCA619}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="13" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B2" s="5">
+        <f t="shared" ref="B2:B13" si="0">C2+D2</f>
+        <v>53817</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1302</v>
+      </c>
+      <c r="D2" s="6">
+        <v>52515</v>
+      </c>
+      <c r="E2" s="5">
+        <f t="shared" ref="E2:E13" si="1">F2+G2</f>
+        <v>120285</v>
+      </c>
+      <c r="F2" s="6">
+        <v>25685</v>
+      </c>
+      <c r="G2" s="6">
+        <v>94600</v>
+      </c>
+      <c r="H2" s="5">
+        <f t="shared" ref="H2:H13" si="2">E2*5</f>
+        <v>601425</v>
+      </c>
+      <c r="I2" s="5">
+        <f t="shared" ref="I2:I13" si="3">J2+K2</f>
+        <v>59530</v>
+      </c>
+      <c r="J2" s="6">
+        <v>6720</v>
+      </c>
+      <c r="K2" s="6">
+        <v>52810</v>
+      </c>
+      <c r="L2" s="5">
+        <f>I2*5</f>
+        <v>297650</v>
+      </c>
+      <c r="M2" s="6">
+        <f t="shared" ref="M2:M13" si="4">B2+H2+L2</f>
+        <v>952892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B3" s="5">
+        <f t="shared" si="0"/>
+        <v>50762</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1429</v>
+      </c>
+      <c r="D3" s="6">
+        <v>49333</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" si="1"/>
+        <v>149890</v>
+      </c>
+      <c r="F3" s="6">
+        <v>31245</v>
+      </c>
+      <c r="G3" s="6">
+        <v>118645</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" si="2"/>
+        <v>749450</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="3"/>
+        <v>66275</v>
+      </c>
+      <c r="J3" s="6">
+        <v>6665</v>
+      </c>
+      <c r="K3" s="6">
+        <v>59610</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" ref="L2:L13" si="5">I3*5</f>
+        <v>331375</v>
+      </c>
+      <c r="M3" s="6">
+        <f t="shared" si="4"/>
+        <v>1131587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B4" s="5">
+        <f t="shared" si="0"/>
+        <v>45950</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1490</v>
+      </c>
+      <c r="D4" s="6">
+        <v>44460</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="1"/>
+        <v>155965</v>
+      </c>
+      <c r="F4" s="6">
+        <v>29305</v>
+      </c>
+      <c r="G4" s="6">
+        <v>126660</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="2"/>
+        <v>779825</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="3"/>
+        <v>69250</v>
+      </c>
+      <c r="J4" s="6">
+        <v>7630</v>
+      </c>
+      <c r="K4" s="6">
+        <v>61620</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="5"/>
+        <v>346250</v>
+      </c>
+      <c r="M4" s="6">
+        <f t="shared" si="4"/>
+        <v>1172025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B5" s="5">
+        <f t="shared" si="0"/>
+        <v>42453</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1433</v>
+      </c>
+      <c r="D5" s="6">
+        <v>41020</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="1"/>
+        <v>169800</v>
+      </c>
+      <c r="F5" s="6">
+        <v>35650</v>
+      </c>
+      <c r="G5" s="6">
+        <v>134150</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="2"/>
+        <v>849000</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="3"/>
+        <v>69075</v>
+      </c>
+      <c r="J5" s="6">
+        <v>7615</v>
+      </c>
+      <c r="K5" s="6">
+        <v>61460</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="5"/>
+        <v>345375</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" si="4"/>
+        <v>1236828</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B6" s="5">
+        <f t="shared" si="0"/>
+        <v>40727</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1510</v>
+      </c>
+      <c r="D6" s="6">
+        <v>39217</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
+        <v>162770</v>
+      </c>
+      <c r="F6" s="6">
+        <v>37915</v>
+      </c>
+      <c r="G6" s="6">
+        <v>124855</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="2"/>
+        <v>813850</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="3"/>
+        <v>70825</v>
+      </c>
+      <c r="J6" s="6">
+        <v>7505</v>
+      </c>
+      <c r="K6" s="6">
+        <v>63320</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="5"/>
+        <v>354125</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="4"/>
+        <v>1208702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B7" s="5">
+        <f t="shared" si="0"/>
+        <v>38083</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1476</v>
+      </c>
+      <c r="D7" s="6">
+        <v>36607</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>177215</v>
+      </c>
+      <c r="F7" s="6">
+        <v>47590</v>
+      </c>
+      <c r="G7" s="6">
+        <v>129625</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="2"/>
+        <v>886075</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="3"/>
+        <v>75005</v>
+      </c>
+      <c r="J7" s="6">
+        <v>7220</v>
+      </c>
+      <c r="K7" s="6">
+        <v>67785</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="5"/>
+        <v>375025</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="4"/>
+        <v>1299183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B8" s="5">
+        <f t="shared" si="0"/>
+        <v>37595</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1619</v>
+      </c>
+      <c r="D8" s="6">
+        <v>35976</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>183500</v>
+      </c>
+      <c r="F8" s="6">
+        <v>51800</v>
+      </c>
+      <c r="G8" s="6">
+        <v>131700</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="2"/>
+        <v>917500</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="3"/>
+        <v>81015</v>
+      </c>
+      <c r="J8" s="6">
+        <v>6330</v>
+      </c>
+      <c r="K8" s="6">
+        <v>74685</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="5"/>
+        <v>405075</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="4"/>
+        <v>1360170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B9" s="5">
+        <f t="shared" si="0"/>
+        <v>92440</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1834</v>
+      </c>
+      <c r="D9" s="6">
+        <v>90606</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>181770</v>
+      </c>
+      <c r="F9" s="6">
+        <v>45275</v>
+      </c>
+      <c r="G9" s="6">
+        <v>136495</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="2"/>
+        <v>908850</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="3"/>
+        <v>100120</v>
+      </c>
+      <c r="J9" s="6">
+        <v>7315</v>
+      </c>
+      <c r="K9" s="6">
+        <v>92805</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="5"/>
+        <v>500600</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="4"/>
+        <v>1501890</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B10" s="5">
+        <f t="shared" si="0"/>
+        <v>93705</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1756</v>
+      </c>
+      <c r="D10" s="6">
+        <v>91949</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>195560</v>
+      </c>
+      <c r="F10" s="6">
+        <v>55420</v>
+      </c>
+      <c r="G10" s="6">
+        <v>140140</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="2"/>
+        <v>977800</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="3"/>
+        <v>105060</v>
+      </c>
+      <c r="J10" s="6">
+        <v>7635</v>
+      </c>
+      <c r="K10" s="6">
+        <v>97425</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="5"/>
+        <v>525300</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="4"/>
+        <v>1596805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B11" s="5">
+        <f t="shared" si="0"/>
+        <v>88356</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1986</v>
+      </c>
+      <c r="D11" s="6">
+        <v>86370</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>226975</v>
+      </c>
+      <c r="F11" s="6">
+        <v>58125</v>
+      </c>
+      <c r="G11" s="6">
+        <v>168850</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="2"/>
+        <v>1134875</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="3"/>
+        <v>109555</v>
+      </c>
+      <c r="J11" s="6">
+        <v>7840</v>
+      </c>
+      <c r="K11" s="6">
+        <v>101715</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="5"/>
+        <v>547775</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="4"/>
+        <v>1771006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>88795</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2138</v>
+      </c>
+      <c r="D12" s="6">
+        <v>86657</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>276295</v>
+      </c>
+      <c r="F12" s="6">
+        <v>63885</v>
+      </c>
+      <c r="G12" s="6">
+        <v>212410</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="2"/>
+        <v>1381475</v>
+      </c>
+      <c r="I12" s="5">
+        <f>J12+K12</f>
+        <v>116060</v>
+      </c>
+      <c r="J12" s="6">
+        <v>8640</v>
+      </c>
+      <c r="K12" s="6">
+        <v>107420</v>
+      </c>
+      <c r="L12" s="5">
+        <f>I12*5</f>
+        <v>580300</v>
+      </c>
+      <c r="M12" s="6">
+        <f>B12+H12+L12</f>
+        <v>2050570</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>64951</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1129</v>
+      </c>
+      <c r="D13" s="6">
+        <v>63822</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>211425</v>
+      </c>
+      <c r="F13" s="6">
+        <v>46940</v>
+      </c>
+      <c r="G13" s="6">
+        <v>164485</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="2"/>
+        <v>1057125</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="3"/>
+        <v>95385</v>
+      </c>
+      <c r="J13" s="6">
+        <v>7325</v>
+      </c>
+      <c r="K13" s="6">
+        <v>88060</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="5"/>
+        <v>476925</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="4"/>
+        <v>1599001</v>
       </c>
     </row>
   </sheetData>
@@ -1534,160 +2396,251 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C912FF-C732-C346-8CDD-9FBC43D11B5E}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C422A4-43CC-8443-B98B-0549C6B7499C}">
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="7" width="19.83203125" customWidth="1"/>
+    <col min="2" max="14" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:14">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>2015</v>
       </c>
       <c r="B2" s="5">
         <f>C2+D2</f>
-        <v>1803</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1419</v>
-      </c>
-      <c r="D2" s="6">
-        <v>384</v>
+        <v>26029</v>
+      </c>
+      <c r="C2" s="1">
+        <v>745</v>
+      </c>
+      <c r="D2" s="1">
+        <v>25284</v>
       </c>
       <c r="E2" s="5">
         <f>F2+G2</f>
-        <v>1788</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1414</v>
-      </c>
-      <c r="G2" s="6">
-        <v>374</v>
-      </c>
-      <c r="H2" s="14">
-        <f>B2+E2</f>
-        <v>3591</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>84940</v>
+      </c>
+      <c r="F2" s="1">
+        <v>19585</v>
+      </c>
+      <c r="G2" s="1">
+        <v>65355</v>
+      </c>
+      <c r="H2" s="5">
+        <f>E2*5</f>
+        <v>424700</v>
+      </c>
+      <c r="I2" s="5">
+        <f>J2+K2</f>
+        <v>34130</v>
+      </c>
+      <c r="J2" s="6">
+        <v>3435</v>
+      </c>
+      <c r="K2" s="6">
+        <v>30695</v>
+      </c>
+      <c r="L2" s="5">
+        <f>I2*5</f>
+        <v>170650</v>
+      </c>
+      <c r="M2" s="6">
+        <f>B2+H2+L2</f>
+        <v>621379</v>
+      </c>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>2016</v>
       </c>
       <c r="B3" s="5">
         <f>C3+D3</f>
-        <v>8187</v>
-      </c>
-      <c r="C3" s="6">
-        <v>6419</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1768</v>
+        <v>113022</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2276</v>
+      </c>
+      <c r="D3" s="1">
+        <v>110746</v>
       </c>
       <c r="E3" s="5">
         <f>F3+G3</f>
-        <v>7999</v>
-      </c>
-      <c r="F3" s="6">
-        <v>6356</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1643</v>
-      </c>
-      <c r="H3" s="14">
-        <f t="shared" ref="H3:H5" si="0">B3+E3</f>
-        <v>16186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>382230</v>
+      </c>
+      <c r="F3" s="1">
+        <v>86645</v>
+      </c>
+      <c r="G3" s="1">
+        <v>295585</v>
+      </c>
+      <c r="H3" s="5">
+        <f>E3*5</f>
+        <v>1911150</v>
+      </c>
+      <c r="I3" s="5">
+        <f>J3+K3</f>
+        <v>156960</v>
+      </c>
+      <c r="J3" s="6">
+        <v>15980</v>
+      </c>
+      <c r="K3" s="6">
+        <v>140980</v>
+      </c>
+      <c r="L3" s="5">
+        <f>I3*5</f>
+        <v>784800</v>
+      </c>
+      <c r="M3" s="6">
+        <f>B3+H3+L3</f>
+        <v>2808972</v>
+      </c>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2017</v>
       </c>
       <c r="B4" s="5">
         <f>C4+D4</f>
-        <v>8715</v>
-      </c>
-      <c r="C4" s="6">
-        <v>6789</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1926</v>
+        <v>117390</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2410</v>
+      </c>
+      <c r="D4" s="1">
+        <v>114980</v>
       </c>
       <c r="E4" s="5">
         <f>F4+G4</f>
-        <v>8211</v>
-      </c>
-      <c r="F4" s="6">
-        <v>6428</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1783</v>
-      </c>
-      <c r="H4" s="14">
-        <f t="shared" si="0"/>
-        <v>16926</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>436700</v>
+      </c>
+      <c r="F4" s="1">
+        <v>84225</v>
+      </c>
+      <c r="G4" s="1">
+        <v>352475</v>
+      </c>
+      <c r="H4" s="5">
+        <f>E4*5</f>
+        <v>2183500</v>
+      </c>
+      <c r="I4" s="5">
+        <f>J4+K4</f>
+        <v>173930</v>
+      </c>
+      <c r="J4" s="6">
+        <v>16190</v>
+      </c>
+      <c r="K4" s="6">
+        <v>157740</v>
+      </c>
+      <c r="L4" s="5">
+        <f>I4*5</f>
+        <v>869650</v>
+      </c>
+      <c r="M4" s="6">
+        <f>B4+H4+L4</f>
+        <v>3170540</v>
+      </c>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>2018</v>
       </c>
       <c r="B5" s="5">
         <f>C5+D5</f>
-        <v>9191</v>
-      </c>
-      <c r="C5" s="6">
-        <v>7065</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2126</v>
+        <v>117283</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2409</v>
+      </c>
+      <c r="D5" s="1">
+        <v>114874</v>
       </c>
       <c r="E5" s="5">
         <f>F5+G5</f>
-        <v>8989</v>
-      </c>
-      <c r="F5" s="6">
-        <v>7014</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1975</v>
-      </c>
-      <c r="H5" s="14">
-        <f t="shared" si="0"/>
-        <v>18180</v>
-      </c>
+        <v>494645</v>
+      </c>
+      <c r="F5" s="1">
+        <v>86065</v>
+      </c>
+      <c r="G5" s="1">
+        <v>408580</v>
+      </c>
+      <c r="H5" s="5">
+        <f>E5*5</f>
+        <v>2473225</v>
+      </c>
+      <c r="I5" s="5">
+        <f>J5+K5</f>
+        <v>186520</v>
+      </c>
+      <c r="J5" s="6">
+        <v>17930</v>
+      </c>
+      <c r="K5" s="6">
+        <v>168590</v>
+      </c>
+      <c r="L5" s="5">
+        <f>I5*5</f>
+        <v>932600</v>
+      </c>
+      <c r="M5" s="6">
+        <f>B5+H5+L5</f>
+        <v>3523108</v>
+      </c>
+      <c r="N5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1695,298 +2648,770 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14BD142-2C3F-DB44-8EE9-109693D1898C}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB986B85-75B0-974D-BAD7-4694D91C64E9}">
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
-    <col min="2" max="4" width="14.6640625" customWidth="1"/>
-    <col min="6" max="8" width="14.1640625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>59</v>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>62</v>
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>2004</v>
       </c>
       <c r="B2" s="5">
         <f t="shared" ref="B2:B12" si="0">C2+D2</f>
-        <v>22895</v>
+        <v>53817</v>
       </c>
       <c r="C2" s="6">
-        <v>20427</v>
+        <v>1302</v>
       </c>
       <c r="D2" s="6">
-        <v>2468</v>
+        <v>52515</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:E12" si="1">F2+G2</f>
-        <v>90</v>
-      </c>
-      <c r="F2" s="6"/>
+        <v>120285</v>
+      </c>
+      <c r="F2" s="6">
+        <v>25685</v>
+      </c>
       <c r="G2" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>94600</v>
+      </c>
+      <c r="H2" s="5">
+        <f t="shared" ref="H2:H12" si="2">E2*5</f>
+        <v>601425</v>
+      </c>
+      <c r="I2" s="5">
+        <f t="shared" ref="I2:I11" si="3">J2+K2</f>
+        <v>59530</v>
+      </c>
+      <c r="J2" s="6">
+        <v>6720</v>
+      </c>
+      <c r="K2" s="6">
+        <v>52810</v>
+      </c>
+      <c r="L2" s="5">
+        <f>I2*5</f>
+        <v>297650</v>
+      </c>
+      <c r="M2" s="6">
+        <f t="shared" ref="M2:M11" si="4">B2+H2+L2</f>
+        <v>952892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>2005</v>
       </c>
       <c r="B3" s="5">
         <f t="shared" si="0"/>
-        <v>21256</v>
+        <v>50762</v>
       </c>
       <c r="C3" s="6">
-        <v>19021</v>
+        <v>1429</v>
       </c>
       <c r="D3" s="6">
-        <v>2235</v>
+        <v>49333</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
-      <c r="F3" s="6"/>
+        <v>149890</v>
+      </c>
+      <c r="F3" s="6">
+        <v>31245</v>
+      </c>
       <c r="G3" s="6">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>118645</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" si="2"/>
+        <v>749450</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="3"/>
+        <v>66275</v>
+      </c>
+      <c r="J3" s="6">
+        <v>6665</v>
+      </c>
+      <c r="K3" s="6">
+        <v>59610</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" ref="L3:L11" si="5">I3*5</f>
+        <v>331375</v>
+      </c>
+      <c r="M3" s="6">
+        <f t="shared" si="4"/>
+        <v>1131587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2006</v>
       </c>
       <c r="B4" s="5">
         <f t="shared" si="0"/>
-        <v>19447</v>
+        <v>45950</v>
       </c>
       <c r="C4" s="6">
-        <v>17383</v>
+        <v>1490</v>
       </c>
       <c r="D4" s="6">
-        <v>2064</v>
+        <v>44460</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-      <c r="F4" s="6"/>
+        <v>155965</v>
+      </c>
+      <c r="F4" s="6">
+        <v>29305</v>
+      </c>
       <c r="G4" s="6">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>126660</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="2"/>
+        <v>779825</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="3"/>
+        <v>69250</v>
+      </c>
+      <c r="J4" s="6">
+        <v>7630</v>
+      </c>
+      <c r="K4" s="6">
+        <v>61620</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="5"/>
+        <v>346250</v>
+      </c>
+      <c r="M4" s="6">
+        <f t="shared" si="4"/>
+        <v>1172025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>2007</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
-        <v>17787</v>
+        <v>42453</v>
       </c>
       <c r="C5" s="6">
-        <v>15826</v>
+        <v>1433</v>
       </c>
       <c r="D5" s="6">
-        <v>1961</v>
+        <v>41020</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="F5" s="6"/>
+        <v>169800</v>
+      </c>
+      <c r="F5" s="6">
+        <v>35650</v>
+      </c>
       <c r="G5" s="6">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>134150</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="2"/>
+        <v>849000</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="3"/>
+        <v>69075</v>
+      </c>
+      <c r="J5" s="6">
+        <v>7615</v>
+      </c>
+      <c r="K5" s="6">
+        <v>61460</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="5"/>
+        <v>345375</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" si="4"/>
+        <v>1236828</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>2008</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
-        <v>16744</v>
+        <v>40727</v>
       </c>
       <c r="C6" s="6">
-        <v>14890</v>
+        <v>1510</v>
       </c>
       <c r="D6" s="6">
-        <v>1854</v>
+        <v>39217</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>162770</v>
+      </c>
+      <c r="F6" s="6">
+        <v>37915</v>
+      </c>
       <c r="G6" s="6">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>124855</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="2"/>
+        <v>813850</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="3"/>
+        <v>70825</v>
+      </c>
+      <c r="J6" s="6">
+        <v>7505</v>
+      </c>
+      <c r="K6" s="6">
+        <v>63320</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="5"/>
+        <v>354125</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="4"/>
+        <v>1208702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>2009</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
-        <v>16031</v>
+        <v>38083</v>
       </c>
       <c r="C7" s="6">
-        <v>14271</v>
+        <v>1476</v>
       </c>
       <c r="D7" s="6">
-        <v>1760</v>
+        <v>36607</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>177215</v>
+      </c>
+      <c r="F7" s="6">
+        <v>47590</v>
+      </c>
       <c r="G7" s="6">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>129625</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="2"/>
+        <v>886075</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="3"/>
+        <v>75005</v>
+      </c>
+      <c r="J7" s="6">
+        <v>7220</v>
+      </c>
+      <c r="K7" s="6">
+        <v>67785</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="5"/>
+        <v>375025</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="4"/>
+        <v>1299183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>2010</v>
       </c>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
-        <v>3651</v>
+        <v>37595</v>
       </c>
       <c r="C8" s="6">
-        <v>1760</v>
+        <v>1619</v>
       </c>
       <c r="D8" s="6">
-        <v>1891</v>
+        <v>35976</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>183500</v>
+      </c>
+      <c r="F8" s="6">
+        <v>51800</v>
+      </c>
       <c r="G8" s="6">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>131700</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="2"/>
+        <v>917500</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="3"/>
+        <v>81015</v>
+      </c>
+      <c r="J8" s="6">
+        <v>6330</v>
+      </c>
+      <c r="K8" s="6">
+        <v>74685</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="5"/>
+        <v>405075</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="4"/>
+        <v>1360170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>2011</v>
       </c>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
-        <v>28066</v>
+        <v>92440</v>
       </c>
       <c r="C9" s="6">
-        <v>14033</v>
+        <v>1834</v>
       </c>
       <c r="D9" s="6">
-        <v>14033</v>
+        <v>90606</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>181770</v>
+      </c>
+      <c r="F9" s="6">
+        <v>45275</v>
+      </c>
       <c r="G9" s="6">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>136495</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="2"/>
+        <v>908850</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="3"/>
+        <v>100120</v>
+      </c>
+      <c r="J9" s="6">
+        <v>7315</v>
+      </c>
+      <c r="K9" s="6">
+        <v>92805</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="5"/>
+        <v>500600</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="4"/>
+        <v>1501890</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>2012</v>
       </c>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
-        <v>15433</v>
+        <v>93705</v>
       </c>
       <c r="C10" s="6">
-        <v>13586</v>
+        <v>1756</v>
       </c>
       <c r="D10" s="6">
-        <v>1847</v>
+        <v>91949</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>195560</v>
+      </c>
+      <c r="F10" s="6">
+        <v>55420</v>
+      </c>
       <c r="G10" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>140140</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="2"/>
+        <v>977800</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="3"/>
+        <v>105060</v>
+      </c>
+      <c r="J10" s="6">
+        <v>7635</v>
+      </c>
+      <c r="K10" s="6">
+        <v>97425</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="5"/>
+        <v>525300</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="4"/>
+        <v>1596805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>2013</v>
       </c>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
-        <v>15012</v>
+        <v>88356</v>
       </c>
       <c r="C11" s="6">
-        <v>12504</v>
+        <v>1986</v>
       </c>
       <c r="D11" s="6">
-        <v>2508</v>
+        <v>86370</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>226975</v>
+      </c>
+      <c r="F11" s="6">
+        <v>58125</v>
+      </c>
       <c r="G11" s="6">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>168850</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="2"/>
+        <v>1134875</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="3"/>
+        <v>109555</v>
+      </c>
+      <c r="J11" s="6">
+        <v>7840</v>
+      </c>
+      <c r="K11" s="6">
+        <v>101715</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="5"/>
+        <v>547775</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="4"/>
+        <v>1771006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>2014</v>
       </c>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
-        <v>15376</v>
+        <v>88795</v>
       </c>
       <c r="C12" s="6">
-        <v>12839</v>
+        <v>2138</v>
       </c>
       <c r="D12" s="6">
-        <v>2537</v>
+        <v>86657</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>276295</v>
+      </c>
+      <c r="F12" s="6">
+        <v>63885</v>
+      </c>
       <c r="G12" s="6">
-        <v>61</v>
+        <v>212410</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="2"/>
+        <v>1381475</v>
+      </c>
+      <c r="I12" s="5">
+        <f>J12+K12</f>
+        <v>116060</v>
+      </c>
+      <c r="J12" s="6">
+        <v>8640</v>
+      </c>
+      <c r="K12" s="6">
+        <v>107420</v>
+      </c>
+      <c r="L12" s="5">
+        <f>I12*5</f>
+        <v>580300</v>
+      </c>
+      <c r="M12" s="6">
+        <f>B12+H12+L12</f>
+        <v>2050570</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B13" s="5">
+        <f>dgns_cd9!B13+dgns_cd10!B2</f>
+        <v>90980</v>
+      </c>
+      <c r="C13" s="1">
+        <f>dgns_cd9!C13+dgns_cd10!C2</f>
+        <v>1874</v>
+      </c>
+      <c r="D13" s="1">
+        <f>dgns_cd9!D13+dgns_cd10!D2</f>
+        <v>89106</v>
+      </c>
+      <c r="E13" s="5">
+        <f>dgns_cd9!E13+dgns_cd10!E2</f>
+        <v>296365</v>
+      </c>
+      <c r="F13" s="1">
+        <f>dgns_cd9!F13+dgns_cd10!F2</f>
+        <v>66525</v>
+      </c>
+      <c r="G13" s="1">
+        <f>dgns_cd9!G13+dgns_cd10!G2</f>
+        <v>229840</v>
+      </c>
+      <c r="H13" s="5">
+        <f>dgns_cd9!H13+dgns_cd10!H2</f>
+        <v>1481825</v>
+      </c>
+      <c r="I13" s="5">
+        <f>dgns_cd9!I13+dgns_cd10!I2</f>
+        <v>129515</v>
+      </c>
+      <c r="J13" s="6">
+        <f>dgns_cd9!J13+dgns_cd10!J2</f>
+        <v>10760</v>
+      </c>
+      <c r="K13" s="6">
+        <f>dgns_cd9!K13+dgns_cd10!K2</f>
+        <v>118755</v>
+      </c>
+      <c r="L13" s="5">
+        <f>dgns_cd9!L13+dgns_cd10!L2</f>
+        <v>647575</v>
+      </c>
+      <c r="M13" s="6">
+        <f>dgns_cd9!M13+dgns_cd10!M2</f>
+        <v>2220380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B14" s="5">
+        <f>C14+D14</f>
+        <v>113022</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2276</v>
+      </c>
+      <c r="D14" s="1">
+        <v>110746</v>
+      </c>
+      <c r="E14" s="5">
+        <f>F14+G14</f>
+        <v>382230</v>
+      </c>
+      <c r="F14" s="1">
+        <v>86645</v>
+      </c>
+      <c r="G14" s="1">
+        <v>295585</v>
+      </c>
+      <c r="H14" s="5">
+        <f>E14*5</f>
+        <v>1911150</v>
+      </c>
+      <c r="I14" s="5">
+        <f>J14+K14</f>
+        <v>156960</v>
+      </c>
+      <c r="J14" s="6">
+        <v>15980</v>
+      </c>
+      <c r="K14" s="6">
+        <v>140980</v>
+      </c>
+      <c r="L14" s="5">
+        <f>I14*5</f>
+        <v>784800</v>
+      </c>
+      <c r="M14" s="6">
+        <f>B14+H14+L14</f>
+        <v>2808972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B15" s="5">
+        <f>C15+D15</f>
+        <v>117390</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2410</v>
+      </c>
+      <c r="D15" s="1">
+        <v>114980</v>
+      </c>
+      <c r="E15" s="5">
+        <f>F15+G15</f>
+        <v>436700</v>
+      </c>
+      <c r="F15" s="1">
+        <v>84225</v>
+      </c>
+      <c r="G15" s="1">
+        <v>352475</v>
+      </c>
+      <c r="H15" s="5">
+        <f>E15*5</f>
+        <v>2183500</v>
+      </c>
+      <c r="I15" s="5">
+        <f>J15+K15</f>
+        <v>173930</v>
+      </c>
+      <c r="J15" s="6">
+        <v>16190</v>
+      </c>
+      <c r="K15" s="6">
+        <v>157740</v>
+      </c>
+      <c r="L15" s="5">
+        <f>I15*5</f>
+        <v>869650</v>
+      </c>
+      <c r="M15" s="6">
+        <f>B15+H15+L15</f>
+        <v>3170540</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B16" s="5">
+        <f>C16+D16</f>
+        <v>117283</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2409</v>
+      </c>
+      <c r="D16" s="1">
+        <v>114874</v>
+      </c>
+      <c r="E16" s="5">
+        <f>F16+G16</f>
+        <v>494645</v>
+      </c>
+      <c r="F16" s="1">
+        <v>86065</v>
+      </c>
+      <c r="G16" s="1">
+        <v>408580</v>
+      </c>
+      <c r="H16" s="5">
+        <f>E16*5</f>
+        <v>2473225</v>
+      </c>
+      <c r="I16" s="5">
+        <f>J16+K16</f>
+        <v>186520</v>
+      </c>
+      <c r="J16" s="6">
+        <v>17930</v>
+      </c>
+      <c r="K16" s="6">
+        <v>168590</v>
+      </c>
+      <c r="L16" s="5">
+        <f>I16*5</f>
+        <v>932600</v>
+      </c>
+      <c r="M16" s="6">
+        <f>B16+H16+L16</f>
+        <v>3523108</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2005,112 +3430,112 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AK1" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="AK1" s="10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:37">
@@ -2230,7 +3655,7 @@
         <v>920</v>
       </c>
       <c r="AK2" s="5">
-        <f>L2+P2+AI2</f>
+        <f t="shared" ref="AK2:AK16" si="4">L2+P2+AI2</f>
         <v>4600</v>
       </c>
     </row>
@@ -2266,11 +3691,11 @@
         <v>45</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" ref="K3:K16" si="4">SUM(C3:J3)</f>
+        <f t="shared" ref="K3:K16" si="5">SUM(C3:J3)</f>
         <v>675</v>
       </c>
       <c r="L3" s="5">
-        <f t="shared" ref="L3:L16" si="5">K3*5</f>
+        <f t="shared" ref="L3:L16" si="6">K3*5</f>
         <v>3375</v>
       </c>
       <c r="M3" s="6">
@@ -2347,11 +3772,11 @@
         <v>475</v>
       </c>
       <c r="AJ3" s="5">
-        <f t="shared" ref="AJ3:AJ16" si="6">AK3/5</f>
+        <f t="shared" ref="AJ3:AJ16" si="7">AK3/5</f>
         <v>930</v>
       </c>
       <c r="AK3" s="5">
-        <f>L3+P3+AI3</f>
+        <f t="shared" si="4"/>
         <v>4650</v>
       </c>
     </row>
@@ -2387,11 +3812,11 @@
         <v>25</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>865</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4325</v>
       </c>
       <c r="M4" s="6">
@@ -2468,11 +3893,11 @@
         <v>950</v>
       </c>
       <c r="AJ4" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1310</v>
       </c>
       <c r="AK4" s="5">
-        <f>L4+P4+AI4</f>
+        <f t="shared" si="4"/>
         <v>6550</v>
       </c>
     </row>
@@ -2508,11 +3933,11 @@
         <v>50</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>670</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3350</v>
       </c>
       <c r="M5" s="6">
@@ -2589,11 +4014,11 @@
         <v>825</v>
       </c>
       <c r="AJ5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1160</v>
       </c>
       <c r="AK5" s="5">
-        <f>L5+P5+AI5</f>
+        <f t="shared" si="4"/>
         <v>5800</v>
       </c>
     </row>
@@ -2629,11 +4054,11 @@
         <v>35</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>955</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4775</v>
       </c>
       <c r="M6" s="6">
@@ -2710,11 +4135,11 @@
         <v>1100</v>
       </c>
       <c r="AJ6" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1470</v>
       </c>
       <c r="AK6" s="5">
-        <f>L6+P6+AI6</f>
+        <f t="shared" si="4"/>
         <v>7350</v>
       </c>
     </row>
@@ -2750,11 +4175,11 @@
         <v>35</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1070</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5350</v>
       </c>
       <c r="M7" s="6">
@@ -2831,11 +4256,11 @@
         <v>1425</v>
       </c>
       <c r="AJ7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1715</v>
       </c>
       <c r="AK7" s="5">
-        <f>L7+P7+AI7</f>
+        <f t="shared" si="4"/>
         <v>8575</v>
       </c>
     </row>
@@ -2869,11 +4294,11 @@
         <v>25</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1120</v>
       </c>
       <c r="L8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5600</v>
       </c>
       <c r="M8" s="6">
@@ -2950,11 +4375,11 @@
         <v>1750</v>
       </c>
       <c r="AJ8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1835</v>
       </c>
       <c r="AK8" s="5">
-        <f>L8+P8+AI8</f>
+        <f t="shared" si="4"/>
         <v>9175</v>
       </c>
     </row>
@@ -2988,11 +4413,11 @@
         <v>20</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1275</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6375</v>
       </c>
       <c r="M9" s="6">
@@ -3069,11 +4494,11 @@
         <v>2175</v>
       </c>
       <c r="AJ9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2225</v>
       </c>
       <c r="AK9" s="5">
-        <f>L9+P9+AI9</f>
+        <f t="shared" si="4"/>
         <v>11125</v>
       </c>
     </row>
@@ -3107,11 +4532,11 @@
         <v>15</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1120</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5600</v>
       </c>
       <c r="M10" s="6">
@@ -3188,11 +4613,11 @@
         <v>1725</v>
       </c>
       <c r="AJ10" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1870</v>
       </c>
       <c r="AK10" s="5">
-        <f>L10+P10+AI10</f>
+        <f t="shared" si="4"/>
         <v>9350</v>
       </c>
     </row>
@@ -3226,11 +4651,11 @@
         <v>20</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1035</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5175</v>
       </c>
       <c r="M11" s="6">
@@ -3307,11 +4732,11 @@
         <v>1500</v>
       </c>
       <c r="AJ11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1750</v>
       </c>
       <c r="AK11" s="5">
-        <f>L11+P11+AI11</f>
+        <f t="shared" si="4"/>
         <v>8750</v>
       </c>
     </row>
@@ -3345,11 +4770,11 @@
         <v>2</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>615</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3075</v>
       </c>
       <c r="M12" s="6">
@@ -3426,11 +4851,11 @@
         <v>925</v>
       </c>
       <c r="AJ12" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1005</v>
       </c>
       <c r="AK12" s="5">
-        <f>L12+P12+AI12</f>
+        <f t="shared" si="4"/>
         <v>5025</v>
       </c>
     </row>
@@ -3464,11 +4889,11 @@
         <v>15</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1205</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6025</v>
       </c>
       <c r="M13" s="6">
@@ -3545,11 +4970,11 @@
         <v>1900</v>
       </c>
       <c r="AJ13" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2015</v>
       </c>
       <c r="AK13" s="5">
-        <f>L13+P13+AI13</f>
+        <f t="shared" si="4"/>
         <v>10075</v>
       </c>
     </row>
@@ -3583,11 +5008,11 @@
         <v>15</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1110</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5550</v>
       </c>
       <c r="M14" s="6">
@@ -3664,11 +5089,11 @@
         <v>1350</v>
       </c>
       <c r="AJ14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1815</v>
       </c>
       <c r="AK14" s="5">
-        <f>L14+P14+AI14</f>
+        <f t="shared" si="4"/>
         <v>9075</v>
       </c>
     </row>
@@ -3702,11 +5127,11 @@
         <v>0</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1305</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6525</v>
       </c>
       <c r="M15" s="6">
@@ -3783,11 +5208,11 @@
         <v>1925</v>
       </c>
       <c r="AJ15" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2140</v>
       </c>
       <c r="AK15" s="5">
-        <f>L15+P15+AI15</f>
+        <f t="shared" si="4"/>
         <v>10700</v>
       </c>
     </row>
@@ -3821,11 +5246,11 @@
         <v>20</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1605</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8025</v>
       </c>
       <c r="M16" s="6">
@@ -3902,11 +5327,11 @@
         <v>2600</v>
       </c>
       <c r="AJ16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2630</v>
       </c>
       <c r="AK16" s="5">
-        <f>L16+P16+AI16</f>
+        <f t="shared" si="4"/>
         <v>13150</v>
       </c>
     </row>
@@ -3920,7 +5345,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3936,16 +5361,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3982,7 +5407,7 @@
         <v>6.3968333373960705E-3</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E2:E16" si="1">B3*5</f>
+        <f t="shared" ref="E3:E16" si="1">B3*5</f>
         <v>4448000</v>
       </c>
     </row>
@@ -4229,7 +5654,7 @@
         <v>4.4705385654364212E-3</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="1"/>
+        <f>B16*5</f>
         <v>3739975</v>
       </c>
     </row>
@@ -4245,621 +5670,295 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A88FD33-A61D-0F40-929F-6D30BBBCA619}">
-  <dimension ref="A1:M13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14BD142-2C3F-DB44-8EE9-109693D1898C}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="13" width="18" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="6" width="14.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>19</v>
+        <v>60</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>62</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>2004</v>
       </c>
-      <c r="B2" s="5">
-        <f t="shared" ref="B2:B13" si="0">C2+D2</f>
-        <v>53817</v>
+      <c r="B2" s="6">
+        <v>20427</v>
       </c>
       <c r="C2" s="6">
-        <v>1302</v>
-      </c>
-      <c r="D2" s="6">
-        <v>52515</v>
-      </c>
-      <c r="E2" s="5">
-        <f t="shared" ref="E2:E13" si="1">F2+G2</f>
-        <v>120285</v>
-      </c>
+        <v>2468</v>
+      </c>
+      <c r="D2" s="5">
+        <f>B2+C2</f>
+        <v>22895</v>
+      </c>
+      <c r="E2" s="6"/>
       <c r="F2" s="6">
-        <v>25685</v>
-      </c>
-      <c r="G2" s="6">
-        <v>94600</v>
-      </c>
-      <c r="H2" s="5">
-        <f t="shared" ref="H2:H13" si="2">E2*5</f>
-        <v>601425</v>
-      </c>
-      <c r="I2" s="5">
-        <f t="shared" ref="I2:I13" si="3">J2+K2</f>
-        <v>59530</v>
-      </c>
-      <c r="J2" s="6">
-        <v>6720</v>
-      </c>
-      <c r="K2" s="6">
-        <v>52810</v>
-      </c>
-      <c r="L2" s="5">
-        <f t="shared" ref="L2:L13" si="4">I2*5</f>
-        <v>297650</v>
-      </c>
-      <c r="M2" s="6">
-        <f>B2+H2+L2</f>
-        <v>952892</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>90</v>
+      </c>
+      <c r="G2" s="5">
+        <f>E2+F2</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2005</v>
       </c>
-      <c r="B3" s="5">
-        <f t="shared" si="0"/>
-        <v>50762</v>
+      <c r="B3" s="6">
+        <v>19021</v>
       </c>
       <c r="C3" s="6">
-        <v>1429</v>
-      </c>
-      <c r="D3" s="6">
-        <v>49333</v>
-      </c>
-      <c r="E3" s="5">
-        <f t="shared" si="1"/>
-        <v>149890</v>
-      </c>
+        <v>2235</v>
+      </c>
+      <c r="D3" s="5">
+        <f>B3+C3</f>
+        <v>21256</v>
+      </c>
+      <c r="E3" s="6"/>
       <c r="F3" s="6">
-        <v>31245</v>
-      </c>
-      <c r="G3" s="6">
-        <v>118645</v>
-      </c>
-      <c r="H3" s="5">
-        <f t="shared" si="2"/>
-        <v>749450</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" si="3"/>
-        <v>66275</v>
-      </c>
-      <c r="J3" s="6">
-        <v>6665</v>
-      </c>
-      <c r="K3" s="6">
-        <v>59610</v>
-      </c>
-      <c r="L3" s="5">
-        <f t="shared" si="4"/>
-        <v>331375</v>
-      </c>
-      <c r="M3" s="6">
-        <f>B3+H3+L3</f>
-        <v>1131587</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>106</v>
+      </c>
+      <c r="G3" s="5">
+        <f>E3+F3</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2006</v>
       </c>
-      <c r="B4" s="5">
-        <f t="shared" si="0"/>
-        <v>45950</v>
+      <c r="B4" s="6">
+        <v>17383</v>
       </c>
       <c r="C4" s="6">
-        <v>1490</v>
-      </c>
-      <c r="D4" s="6">
-        <v>44460</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" si="1"/>
-        <v>155965</v>
-      </c>
+        <v>2064</v>
+      </c>
+      <c r="D4" s="5">
+        <f>B4+C4</f>
+        <v>19447</v>
+      </c>
+      <c r="E4" s="6"/>
       <c r="F4" s="6">
-        <v>29305</v>
-      </c>
-      <c r="G4" s="6">
-        <v>126660</v>
-      </c>
-      <c r="H4" s="5">
-        <f t="shared" si="2"/>
-        <v>779825</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="3"/>
-        <v>69250</v>
-      </c>
-      <c r="J4" s="6">
-        <v>7630</v>
-      </c>
-      <c r="K4" s="6">
-        <v>61620</v>
-      </c>
-      <c r="L4" s="5">
-        <f t="shared" si="4"/>
-        <v>346250</v>
-      </c>
-      <c r="M4" s="6">
-        <f>B4+H4+L4</f>
-        <v>1172025</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>112</v>
+      </c>
+      <c r="G4" s="5">
+        <f>E4+F4</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>2007</v>
       </c>
-      <c r="B5" s="5">
-        <f t="shared" si="0"/>
-        <v>42453</v>
+      <c r="B5" s="6">
+        <v>15826</v>
       </c>
       <c r="C5" s="6">
-        <v>1433</v>
-      </c>
-      <c r="D5" s="6">
-        <v>41020</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" si="1"/>
-        <v>169800</v>
-      </c>
+        <v>1961</v>
+      </c>
+      <c r="D5" s="5">
+        <f>B5+C5</f>
+        <v>17787</v>
+      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>35650</v>
-      </c>
-      <c r="G5" s="6">
-        <v>134150</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" si="2"/>
-        <v>849000</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="3"/>
-        <v>69075</v>
-      </c>
-      <c r="J5" s="6">
-        <v>7615</v>
-      </c>
-      <c r="K5" s="6">
-        <v>61460</v>
-      </c>
-      <c r="L5" s="5">
-        <f t="shared" si="4"/>
-        <v>345375</v>
-      </c>
-      <c r="M5" s="6">
-        <f>B5+H5+L5</f>
-        <v>1236828</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>88</v>
+      </c>
+      <c r="G5" s="5">
+        <f>E5+F5</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>2008</v>
       </c>
-      <c r="B6" s="5">
-        <f t="shared" si="0"/>
-        <v>40727</v>
+      <c r="B6" s="6">
+        <v>14890</v>
       </c>
       <c r="C6" s="6">
-        <v>1510</v>
-      </c>
-      <c r="D6" s="6">
-        <v>39217</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="1"/>
-        <v>162770</v>
-      </c>
+        <v>1854</v>
+      </c>
+      <c r="D6" s="5">
+        <f>B6+C6</f>
+        <v>16744</v>
+      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="6">
-        <v>37915</v>
-      </c>
-      <c r="G6" s="6">
-        <v>124855</v>
-      </c>
-      <c r="H6" s="5">
-        <f t="shared" si="2"/>
-        <v>813850</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="3"/>
-        <v>70825</v>
-      </c>
-      <c r="J6" s="6">
-        <v>7505</v>
-      </c>
-      <c r="K6" s="6">
-        <v>63320</v>
-      </c>
-      <c r="L6" s="5">
-        <f t="shared" si="4"/>
-        <v>354125</v>
-      </c>
-      <c r="M6" s="6">
-        <f>B6+H6+L6</f>
-        <v>1208702</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>95</v>
+      </c>
+      <c r="G6" s="5">
+        <f>E6+F6</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>2009</v>
       </c>
-      <c r="B7" s="5">
-        <f t="shared" si="0"/>
-        <v>38083</v>
+      <c r="B7" s="6">
+        <v>14271</v>
       </c>
       <c r="C7" s="6">
-        <v>1476</v>
-      </c>
-      <c r="D7" s="6">
-        <v>36607</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="1"/>
-        <v>177215</v>
-      </c>
+        <v>1760</v>
+      </c>
+      <c r="D7" s="5">
+        <f>B7+C7</f>
+        <v>16031</v>
+      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="6">
-        <v>47590</v>
-      </c>
-      <c r="G7" s="6">
-        <v>129625</v>
-      </c>
-      <c r="H7" s="5">
-        <f t="shared" si="2"/>
-        <v>886075</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="3"/>
-        <v>75005</v>
-      </c>
-      <c r="J7" s="6">
-        <v>7220</v>
-      </c>
-      <c r="K7" s="6">
-        <v>67785</v>
-      </c>
-      <c r="L7" s="5">
-        <f t="shared" si="4"/>
-        <v>375025</v>
-      </c>
-      <c r="M7" s="6">
-        <f>B7+H7+L7</f>
-        <v>1299183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>97</v>
+      </c>
+      <c r="G7" s="5">
+        <f>E7+F7</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>2010</v>
       </c>
-      <c r="B8" s="5">
-        <f t="shared" si="0"/>
-        <v>37595</v>
+      <c r="B8" s="6">
+        <v>14128</v>
       </c>
       <c r="C8" s="6">
-        <v>1619</v>
-      </c>
-      <c r="D8" s="6">
-        <v>35976</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="1"/>
-        <v>183500</v>
-      </c>
+        <v>1891</v>
+      </c>
+      <c r="D8" s="5">
+        <f>B8+C8</f>
+        <v>16019</v>
+      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="6">
-        <v>51800</v>
-      </c>
-      <c r="G8" s="6">
-        <v>131700</v>
-      </c>
-      <c r="H8" s="5">
-        <f t="shared" si="2"/>
-        <v>917500</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="3"/>
-        <v>81015</v>
-      </c>
-      <c r="J8" s="6">
-        <v>6330</v>
-      </c>
-      <c r="K8" s="6">
-        <v>74685</v>
-      </c>
-      <c r="L8" s="5">
-        <f t="shared" si="4"/>
-        <v>405075</v>
-      </c>
-      <c r="M8" s="6">
-        <f>B8+H8+L8</f>
-        <v>1360170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>98</v>
+      </c>
+      <c r="G8" s="5">
+        <f>E8+F8</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>2011</v>
       </c>
-      <c r="B9" s="5">
-        <f t="shared" si="0"/>
-        <v>92440</v>
+      <c r="B9" s="6">
+        <v>14033</v>
       </c>
       <c r="C9" s="6">
-        <v>1834</v>
-      </c>
-      <c r="D9" s="6">
-        <v>90606</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="1"/>
-        <v>181770</v>
-      </c>
+        <v>1997</v>
+      </c>
+      <c r="D9" s="5">
+        <f>B9+C9</f>
+        <v>16030</v>
+      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="6">
-        <v>45275</v>
-      </c>
-      <c r="G9" s="6">
-        <v>136495</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="2"/>
-        <v>908850</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" si="3"/>
-        <v>100120</v>
-      </c>
-      <c r="J9" s="6">
-        <v>7315</v>
-      </c>
-      <c r="K9" s="6">
-        <v>92805</v>
-      </c>
-      <c r="L9" s="5">
-        <f t="shared" si="4"/>
-        <v>500600</v>
-      </c>
-      <c r="M9" s="6">
-        <f>B9+H9+L9</f>
-        <v>1501890</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>110</v>
+      </c>
+      <c r="G9" s="5">
+        <f>E9+F9</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>2012</v>
       </c>
-      <c r="B10" s="5">
-        <f t="shared" si="0"/>
-        <v>93705</v>
+      <c r="B10" s="6">
+        <v>13586</v>
       </c>
       <c r="C10" s="6">
-        <v>1756</v>
-      </c>
-      <c r="D10" s="6">
-        <v>91949</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="1"/>
-        <v>195560</v>
-      </c>
+        <v>1847</v>
+      </c>
+      <c r="D10" s="5">
+        <f>B10+C10</f>
+        <v>15433</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="6">
-        <v>55420</v>
-      </c>
-      <c r="G10" s="6">
-        <v>140140</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" si="2"/>
-        <v>977800</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="3"/>
-        <v>105060</v>
-      </c>
-      <c r="J10" s="6">
-        <v>7635</v>
-      </c>
-      <c r="K10" s="6">
-        <v>97425</v>
-      </c>
-      <c r="L10" s="5">
-        <f t="shared" si="4"/>
-        <v>525300</v>
-      </c>
-      <c r="M10" s="6">
-        <f>B10+H10+L10</f>
-        <v>1596805</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>80</v>
+      </c>
+      <c r="G10" s="5">
+        <f>E10+F10</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>2013</v>
       </c>
-      <c r="B11" s="5">
-        <f t="shared" si="0"/>
-        <v>88356</v>
+      <c r="B11" s="6">
+        <v>12504</v>
       </c>
       <c r="C11" s="6">
-        <v>1986</v>
-      </c>
-      <c r="D11" s="6">
-        <v>86370</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="1"/>
-        <v>226975</v>
-      </c>
+        <v>2508</v>
+      </c>
+      <c r="D11" s="5">
+        <f>B11+C11</f>
+        <v>15012</v>
+      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="6">
-        <v>58125</v>
-      </c>
-      <c r="G11" s="6">
-        <v>168850</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" si="2"/>
-        <v>1134875</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="3"/>
-        <v>109555</v>
-      </c>
-      <c r="J11" s="6">
-        <v>7840</v>
-      </c>
-      <c r="K11" s="6">
-        <v>101715</v>
-      </c>
-      <c r="L11" s="5">
-        <f t="shared" si="4"/>
-        <v>547775</v>
-      </c>
-      <c r="M11" s="6">
-        <f>B11+H11+L11</f>
-        <v>1771006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>72</v>
+      </c>
+      <c r="G11" s="5">
+        <f>E11+F11</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>2014</v>
       </c>
-      <c r="B12" s="5">
-        <f t="shared" si="0"/>
-        <v>88795</v>
+      <c r="B12" s="6">
+        <v>12839</v>
       </c>
       <c r="C12" s="6">
-        <v>2138</v>
-      </c>
-      <c r="D12" s="6">
-        <v>86657</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="1"/>
-        <v>276295</v>
-      </c>
+        <v>2537</v>
+      </c>
+      <c r="D12" s="5">
+        <f>B12+C12</f>
+        <v>15376</v>
+      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="6">
-        <v>63885</v>
-      </c>
-      <c r="G12" s="6">
-        <v>212410</v>
-      </c>
-      <c r="H12" s="5">
-        <f t="shared" si="2"/>
-        <v>1381475</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="3"/>
-        <v>116060</v>
-      </c>
-      <c r="J12" s="6">
-        <v>8640</v>
-      </c>
-      <c r="K12" s="6">
-        <v>107420</v>
-      </c>
-      <c r="L12" s="5">
-        <f t="shared" si="4"/>
-        <v>580300</v>
-      </c>
-      <c r="M12" s="6">
-        <f>B12+H12+L12</f>
-        <v>2050570</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B13" s="5">
-        <f t="shared" si="0"/>
-        <v>64951</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1129</v>
-      </c>
-      <c r="D13" s="6">
-        <v>63822</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="1"/>
-        <v>211425</v>
-      </c>
-      <c r="F13" s="6">
-        <v>46940</v>
-      </c>
-      <c r="G13" s="6">
-        <v>164485</v>
-      </c>
-      <c r="H13" s="5">
-        <f t="shared" si="2"/>
-        <v>1057125</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="3"/>
-        <v>95385</v>
-      </c>
-      <c r="J13" s="6">
-        <v>7325</v>
-      </c>
-      <c r="K13" s="6">
-        <v>88060</v>
-      </c>
-      <c r="L13" s="5">
-        <f t="shared" si="4"/>
-        <v>476925</v>
-      </c>
-      <c r="M13" s="6">
-        <f>B13+H13+L13</f>
-        <v>1599001</v>
+        <v>61</v>
+      </c>
+      <c r="G12" s="5">
+        <f>E12+F12</f>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4868,264 +5967,466 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C422A4-43CC-8443-B98B-0549C6B7499C}">
-  <dimension ref="A1:N5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C912FF-C732-C346-8CDD-9FBC43D11B5E}">
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="14" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="7" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>66</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>2015</v>
       </c>
       <c r="B2" s="5">
         <f>C2+D2</f>
-        <v>1147</v>
+        <v>1803</v>
       </c>
       <c r="C2" s="6">
-        <v>346</v>
+        <v>1419</v>
       </c>
       <c r="D2" s="6">
-        <v>801</v>
+        <v>384</v>
       </c>
       <c r="E2" s="5">
         <f>F2+G2</f>
-        <v>18170</v>
-      </c>
-      <c r="F2" s="1">
-        <v>8390</v>
-      </c>
-      <c r="G2" s="1">
-        <v>9780</v>
-      </c>
-      <c r="H2" s="5">
-        <f>E2*5</f>
-        <v>90850</v>
-      </c>
-      <c r="I2" s="5">
-        <f>J2+K2</f>
-        <v>2640</v>
-      </c>
-      <c r="J2" s="6">
-        <v>900</v>
-      </c>
-      <c r="K2" s="6">
-        <v>1740</v>
-      </c>
-      <c r="L2" s="5">
-        <f>I2*5</f>
-        <v>13200</v>
-      </c>
-      <c r="M2" s="6">
-        <f>B2+H2+L2</f>
-        <v>105197</v>
-      </c>
-      <c r="N2" s="6">
-        <f>M2/0.17</f>
-        <v>618805.88235294109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1788</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1414</v>
+      </c>
+      <c r="G2" s="6">
+        <v>374</v>
+      </c>
+      <c r="H2" s="13">
+        <f>B2+E2</f>
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2016</v>
       </c>
       <c r="B3" s="5">
         <f>C3+D3</f>
-        <v>3613</v>
+        <v>8187</v>
       </c>
       <c r="C3" s="6">
-        <v>1207</v>
+        <v>6419</v>
       </c>
       <c r="D3" s="6">
-        <v>2406</v>
+        <v>1768</v>
       </c>
       <c r="E3" s="5">
         <f>F3+G3</f>
-        <v>77400</v>
-      </c>
-      <c r="F3" s="1">
-        <v>30015</v>
-      </c>
-      <c r="G3" s="12">
-        <v>47385</v>
-      </c>
-      <c r="H3" s="5">
-        <f>E3*5</f>
-        <v>387000</v>
-      </c>
-      <c r="I3" s="5">
-        <f>J3+K3</f>
-        <v>9585</v>
-      </c>
-      <c r="J3" s="6">
-        <v>3555</v>
-      </c>
-      <c r="K3" s="6">
-        <v>6030</v>
-      </c>
-      <c r="L3" s="5">
-        <f>I3*5</f>
-        <v>47925</v>
-      </c>
-      <c r="M3" s="6">
-        <f>B3+H3+L3</f>
-        <v>438538</v>
-      </c>
-      <c r="N3" s="6">
-        <f>M3/0.17</f>
-        <v>2579635.2941176468</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>7999</v>
+      </c>
+      <c r="F3" s="6">
+        <v>6356</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1643</v>
+      </c>
+      <c r="H3" s="13">
+        <f t="shared" ref="H3:H5" si="0">B3+E3</f>
+        <v>16186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2017</v>
       </c>
       <c r="B4" s="5">
         <f>C4+D4</f>
-        <v>2649</v>
+        <v>8715</v>
       </c>
       <c r="C4" s="6">
-        <v>810</v>
+        <v>6789</v>
       </c>
       <c r="D4" s="6">
-        <v>1839</v>
+        <v>1926</v>
       </c>
       <c r="E4" s="5">
         <f>F4+G4</f>
-        <v>66235</v>
-      </c>
-      <c r="F4" s="1">
-        <v>25205</v>
-      </c>
-      <c r="G4" s="1">
-        <v>41030</v>
-      </c>
-      <c r="H4" s="5">
-        <f>E4*5</f>
-        <v>331175</v>
-      </c>
-      <c r="I4" s="5">
-        <f>J4+K4</f>
-        <v>10085</v>
-      </c>
-      <c r="J4" s="6">
-        <v>3560</v>
-      </c>
-      <c r="K4" s="6">
-        <v>6525</v>
-      </c>
-      <c r="L4" s="5">
-        <f>I4*5</f>
-        <v>50425</v>
-      </c>
-      <c r="M4" s="6">
-        <f>B4+H4+L4</f>
-        <v>384249</v>
-      </c>
-      <c r="N4" s="6">
-        <f>M4/0.17</f>
-        <v>2260288.2352941176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>8211</v>
+      </c>
+      <c r="F4" s="6">
+        <v>6428</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1783</v>
+      </c>
+      <c r="H4" s="13">
+        <f t="shared" si="0"/>
+        <v>16926</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>2018</v>
       </c>
       <c r="B5" s="5">
         <f>C5+D5</f>
-        <v>1773</v>
+        <v>9191</v>
       </c>
       <c r="C5" s="6">
-        <v>500</v>
+        <v>7065</v>
       </c>
       <c r="D5" s="6">
-        <v>1273</v>
+        <v>2126</v>
       </c>
       <c r="E5" s="5">
         <f>F5+G5</f>
-        <v>54935</v>
-      </c>
-      <c r="F5" s="1">
-        <v>20670</v>
-      </c>
-      <c r="G5" s="1">
-        <v>34265</v>
-      </c>
-      <c r="H5" s="5">
-        <f>E5*5</f>
-        <v>274675</v>
-      </c>
-      <c r="I5" s="5">
-        <f>J5+K5</f>
-        <v>7625</v>
-      </c>
-      <c r="J5" s="6">
-        <v>3005</v>
-      </c>
-      <c r="K5" s="6">
-        <v>4620</v>
-      </c>
-      <c r="L5" s="5">
-        <f>I5*5</f>
-        <v>38125</v>
-      </c>
-      <c r="M5" s="6">
-        <f>B5+H5+L5</f>
-        <v>314573</v>
-      </c>
-      <c r="N5" s="6">
-        <f>M5/0.17</f>
-        <v>1850429.4117647058</v>
+        <v>8989</v>
+      </c>
+      <c r="F5" s="6">
+        <v>7014</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1975</v>
+      </c>
+      <c r="H5" s="13">
+        <f t="shared" si="0"/>
+        <v>18180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="13">
+        <f t="shared" ref="C11:C17" si="1">C6+F6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="C16" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E235A38-1ADA-044E-A861-67B8CFC30150}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B2" s="6">
+        <v>20427</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2468</v>
+      </c>
+      <c r="D2" s="5">
+        <f>B2+C2</f>
+        <v>22895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B3" s="6">
+        <v>19021</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2235</v>
+      </c>
+      <c r="D3" s="5">
+        <f>B3+C3</f>
+        <v>21256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B4" s="6">
+        <v>17383</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2064</v>
+      </c>
+      <c r="D4" s="5">
+        <f>B4+C4</f>
+        <v>19447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B5" s="6">
+        <v>15826</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1961</v>
+      </c>
+      <c r="D5" s="5">
+        <f>B5+C5</f>
+        <v>17787</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B6" s="6">
+        <v>14890</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1854</v>
+      </c>
+      <c r="D6" s="5">
+        <f>B6+C6</f>
+        <v>16744</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B7" s="6">
+        <v>14271</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1760</v>
+      </c>
+      <c r="D7" s="5">
+        <f>B7+C7</f>
+        <v>16031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B8" s="6">
+        <v>14128</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1891</v>
+      </c>
+      <c r="D8" s="5">
+        <f>B8+C8</f>
+        <v>16019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B9" s="6">
+        <v>14033</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1997</v>
+      </c>
+      <c r="D9" s="5">
+        <f>B9+C9</f>
+        <v>16030</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B10" s="6">
+        <v>13586</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1847</v>
+      </c>
+      <c r="D10" s="5">
+        <f>B10+C10</f>
+        <v>15433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B11" s="6">
+        <v>12504</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2508</v>
+      </c>
+      <c r="D11" s="5">
+        <f>B11+C11</f>
+        <v>15012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B12" s="6">
+        <v>12839</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2537</v>
+      </c>
+      <c r="D12" s="5">
+        <f>B12+C12</f>
+        <v>15376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B13" s="6">
+        <f>medpar_prcdr_cd10!C2+medpar_prcdr_cd10!F2</f>
+        <v>2833</v>
+      </c>
+      <c r="C13" s="6">
+        <f>medpar_prcdr_cd10!D2+medpar_prcdr_cd10!G2</f>
+        <v>758</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:D16" si="0">B13+C13</f>
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B14" s="6">
+        <f>medpar_prcdr_cd10!C3+medpar_prcdr_cd10!F3</f>
+        <v>12775</v>
+      </c>
+      <c r="C14" s="6">
+        <f>medpar_prcdr_cd10!D3+medpar_prcdr_cd10!G3</f>
+        <v>3411</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>16186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B15" s="6">
+        <f>medpar_prcdr_cd10!C4+medpar_prcdr_cd10!F4</f>
+        <v>13217</v>
+      </c>
+      <c r="C15" s="6">
+        <f>medpar_prcdr_cd10!D4+medpar_prcdr_cd10!G4</f>
+        <v>3709</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>16926</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B16" s="6">
+        <f>medpar_prcdr_cd10!C5+medpar_prcdr_cd10!F5</f>
+        <v>14079</v>
+      </c>
+      <c r="C16" s="6">
+        <f>medpar_prcdr_cd10!D5+medpar_prcdr_cd10!G5</f>
+        <v>4101</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>18180</v>
       </c>
     </row>
   </sheetData>

--- a/NIHSummary.xlsx
+++ b/NIHSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayley/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8EC514-0FA0-D94F-BB4E-DC950F946B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FFC396-D7F0-0D49-A859-3F15812688D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5480" yWindow="1500" windowWidth="27500" windowHeight="20300" xr2:uid="{353E88A6-2A1D-0C42-A634-75A4DCE641B0}"/>
   </bookViews>
@@ -754,7 +754,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -793,22 +793,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -817,6 +813,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1136,7 +1135,7 @@
   <dimension ref="A6:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1149,21 +1148,21 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:3" ht="19">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="16" customFormat="1" ht="16" customHeight="1">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:3" s="34" customFormat="1" ht="16" customHeight="1">
+      <c r="A7" s="34" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="16" customFormat="1"/>
-    <row r="9" spans="1:3" s="16" customFormat="1"/>
-    <row r="10" spans="1:3" s="16" customFormat="1"/>
-    <row r="11" spans="1:3" s="16" customFormat="1"/>
+    <row r="8" spans="1:3" s="34" customFormat="1"/>
+    <row r="9" spans="1:3" s="34" customFormat="1"/>
+    <row r="10" spans="1:3" s="34" customFormat="1"/>
+    <row r="11" spans="1:3" s="34" customFormat="1"/>
     <row r="13" spans="1:3" ht="19">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1284,13 +1283,13 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="14"/>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="28" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="14"/>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="28" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1306,200 +1305,200 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="18" customHeight="1">
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="19"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="18"/>
     </row>
     <row r="33" spans="2:11" ht="18" customHeight="1">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="33"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="31"/>
     </row>
     <row r="34" spans="2:11" ht="18" customHeight="1">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="22"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="21"/>
     </row>
     <row r="35" spans="2:11" ht="18" customHeight="1">
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="22"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="21"/>
     </row>
     <row r="36" spans="2:11" ht="18" customHeight="1">
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="22"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="21"/>
     </row>
     <row r="37" spans="2:11" ht="18" customHeight="1">
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="22"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="21"/>
     </row>
     <row r="38" spans="2:11" ht="18" customHeight="1">
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="22"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="21"/>
     </row>
     <row r="39" spans="2:11" ht="18" customHeight="1">
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="22"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="21"/>
     </row>
     <row r="40" spans="2:11" ht="18" customHeight="1">
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="22"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="21"/>
     </row>
     <row r="41" spans="2:11" ht="18" customHeight="1">
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="25"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="24"/>
     </row>
     <row r="42" spans="2:11" ht="19" customHeight="1"/>
     <row r="43" spans="2:11" ht="19" customHeight="1">
@@ -1912,7 +1911,7 @@
         <v>59610</v>
       </c>
       <c r="L3" s="5">
-        <f t="shared" ref="L2:L13" si="5">I3*5</f>
+        <f t="shared" ref="L3:L13" si="5">I3*5</f>
         <v>331375</v>
       </c>
       <c r="M3" s="6">
@@ -5407,7 +5406,7 @@
         <v>6.3968333373960705E-3</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E16" si="1">B3*5</f>
+        <f t="shared" ref="E3:E15" si="1">B3*5</f>
         <v>4448000</v>
       </c>
     </row>
@@ -5719,7 +5718,7 @@
         <v>2468</v>
       </c>
       <c r="D2" s="5">
-        <f>B2+C2</f>
+        <f t="shared" ref="D2:D12" si="0">B2+C2</f>
         <v>22895</v>
       </c>
       <c r="E2" s="6"/>
@@ -5727,7 +5726,7 @@
         <v>90</v>
       </c>
       <c r="G2" s="5">
-        <f>E2+F2</f>
+        <f t="shared" ref="G2:G12" si="1">E2+F2</f>
         <v>90</v>
       </c>
     </row>
@@ -5742,7 +5741,7 @@
         <v>2235</v>
       </c>
       <c r="D3" s="5">
-        <f>B3+C3</f>
+        <f t="shared" si="0"/>
         <v>21256</v>
       </c>
       <c r="E3" s="6"/>
@@ -5750,7 +5749,7 @@
         <v>106</v>
       </c>
       <c r="G3" s="5">
-        <f>E3+F3</f>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
     </row>
@@ -5765,7 +5764,7 @@
         <v>2064</v>
       </c>
       <c r="D4" s="5">
-        <f>B4+C4</f>
+        <f t="shared" si="0"/>
         <v>19447</v>
       </c>
       <c r="E4" s="6"/>
@@ -5773,7 +5772,7 @@
         <v>112</v>
       </c>
       <c r="G4" s="5">
-        <f>E4+F4</f>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
     </row>
@@ -5788,7 +5787,7 @@
         <v>1961</v>
       </c>
       <c r="D5" s="5">
-        <f>B5+C5</f>
+        <f t="shared" si="0"/>
         <v>17787</v>
       </c>
       <c r="E5" s="6"/>
@@ -5796,7 +5795,7 @@
         <v>88</v>
       </c>
       <c r="G5" s="5">
-        <f>E5+F5</f>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
     </row>
@@ -5811,7 +5810,7 @@
         <v>1854</v>
       </c>
       <c r="D6" s="5">
-        <f>B6+C6</f>
+        <f t="shared" si="0"/>
         <v>16744</v>
       </c>
       <c r="E6" s="1"/>
@@ -5819,7 +5818,7 @@
         <v>95</v>
       </c>
       <c r="G6" s="5">
-        <f>E6+F6</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
     </row>
@@ -5834,7 +5833,7 @@
         <v>1760</v>
       </c>
       <c r="D7" s="5">
-        <f>B7+C7</f>
+        <f t="shared" si="0"/>
         <v>16031</v>
       </c>
       <c r="E7" s="1"/>
@@ -5842,7 +5841,7 @@
         <v>97</v>
       </c>
       <c r="G7" s="5">
-        <f>E7+F7</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
     </row>
@@ -5857,7 +5856,7 @@
         <v>1891</v>
       </c>
       <c r="D8" s="5">
-        <f>B8+C8</f>
+        <f t="shared" si="0"/>
         <v>16019</v>
       </c>
       <c r="E8" s="1"/>
@@ -5865,7 +5864,7 @@
         <v>98</v>
       </c>
       <c r="G8" s="5">
-        <f>E8+F8</f>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
     </row>
@@ -5880,7 +5879,7 @@
         <v>1997</v>
       </c>
       <c r="D9" s="5">
-        <f>B9+C9</f>
+        <f t="shared" si="0"/>
         <v>16030</v>
       </c>
       <c r="E9" s="1"/>
@@ -5888,7 +5887,7 @@
         <v>110</v>
       </c>
       <c r="G9" s="5">
-        <f>E9+F9</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
@@ -5903,7 +5902,7 @@
         <v>1847</v>
       </c>
       <c r="D10" s="5">
-        <f>B10+C10</f>
+        <f t="shared" si="0"/>
         <v>15433</v>
       </c>
       <c r="E10" s="1"/>
@@ -5911,7 +5910,7 @@
         <v>80</v>
       </c>
       <c r="G10" s="5">
-        <f>E10+F10</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
@@ -5926,7 +5925,7 @@
         <v>2508</v>
       </c>
       <c r="D11" s="5">
-        <f>B11+C11</f>
+        <f t="shared" si="0"/>
         <v>15012</v>
       </c>
       <c r="E11" s="1"/>
@@ -5934,7 +5933,7 @@
         <v>72</v>
       </c>
       <c r="G11" s="5">
-        <f>E11+F11</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
@@ -5949,7 +5948,7 @@
         <v>2537</v>
       </c>
       <c r="D12" s="5">
-        <f>B12+C12</f>
+        <f t="shared" si="0"/>
         <v>15376</v>
       </c>
       <c r="E12" s="1"/>
@@ -5957,7 +5956,7 @@
         <v>61</v>
       </c>
       <c r="G12" s="5">
-        <f>E12+F12</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
     </row>
@@ -6140,7 +6139,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="C14" s="13">
-        <f t="shared" ref="C11:C17" si="1">C6+F6</f>
+        <f t="shared" ref="C14:C17" si="1">C6+F6</f>
         <v>0</v>
       </c>
     </row>
@@ -6207,7 +6206,7 @@
         <v>2468</v>
       </c>
       <c r="D2" s="5">
-        <f>B2+C2</f>
+        <f t="shared" ref="D2:D12" si="0">B2+C2</f>
         <v>22895</v>
       </c>
     </row>
@@ -6222,7 +6221,7 @@
         <v>2235</v>
       </c>
       <c r="D3" s="5">
-        <f>B3+C3</f>
+        <f t="shared" si="0"/>
         <v>21256</v>
       </c>
     </row>
@@ -6237,7 +6236,7 @@
         <v>2064</v>
       </c>
       <c r="D4" s="5">
-        <f>B4+C4</f>
+        <f t="shared" si="0"/>
         <v>19447</v>
       </c>
     </row>
@@ -6252,7 +6251,7 @@
         <v>1961</v>
       </c>
       <c r="D5" s="5">
-        <f>B5+C5</f>
+        <f t="shared" si="0"/>
         <v>17787</v>
       </c>
     </row>
@@ -6267,7 +6266,7 @@
         <v>1854</v>
       </c>
       <c r="D6" s="5">
-        <f>B6+C6</f>
+        <f t="shared" si="0"/>
         <v>16744</v>
       </c>
     </row>
@@ -6282,7 +6281,7 @@
         <v>1760</v>
       </c>
       <c r="D7" s="5">
-        <f>B7+C7</f>
+        <f t="shared" si="0"/>
         <v>16031</v>
       </c>
     </row>
@@ -6297,7 +6296,7 @@
         <v>1891</v>
       </c>
       <c r="D8" s="5">
-        <f>B8+C8</f>
+        <f t="shared" si="0"/>
         <v>16019</v>
       </c>
     </row>
@@ -6312,7 +6311,7 @@
         <v>1997</v>
       </c>
       <c r="D9" s="5">
-        <f>B9+C9</f>
+        <f t="shared" si="0"/>
         <v>16030</v>
       </c>
     </row>
@@ -6327,7 +6326,7 @@
         <v>1847</v>
       </c>
       <c r="D10" s="5">
-        <f>B10+C10</f>
+        <f t="shared" si="0"/>
         <v>15433</v>
       </c>
     </row>
@@ -6342,7 +6341,7 @@
         <v>2508</v>
       </c>
       <c r="D11" s="5">
-        <f>B11+C11</f>
+        <f t="shared" si="0"/>
         <v>15012</v>
       </c>
     </row>
@@ -6357,7 +6356,7 @@
         <v>2537</v>
       </c>
       <c r="D12" s="5">
-        <f>B12+C12</f>
+        <f t="shared" si="0"/>
         <v>15376</v>
       </c>
     </row>
@@ -6374,7 +6373,7 @@
         <v>758</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" ref="D13:D16" si="0">B13+C13</f>
+        <f t="shared" ref="D13:D16" si="1">B13+C13</f>
         <v>3591</v>
       </c>
     </row>
@@ -6391,7 +6390,7 @@
         <v>3411</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16186</v>
       </c>
     </row>
@@ -6408,7 +6407,7 @@
         <v>3709</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16926</v>
       </c>
     </row>
@@ -6425,7 +6424,7 @@
         <v>4101</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18180</v>
       </c>
     </row>

--- a/NIHSummary.xlsx
+++ b/NIHSummary.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayley/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FFC396-D7F0-0D49-A859-3F15812688D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BE8029-9EFC-C549-BD57-AD8E17D3ADF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="1500" windowWidth="27500" windowHeight="20300" xr2:uid="{353E88A6-2A1D-0C42-A634-75A4DCE641B0}"/>
+    <workbookView xWindow="5920" yWindow="1780" windowWidth="29680" windowHeight="20020" activeTab="4" xr2:uid="{353E88A6-2A1D-0C42-A634-75A4DCE641B0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="8" r:id="rId1"/>
     <sheet name="dgns_cd9" sheetId="6" r:id="rId2"/>
     <sheet name="dgns_cd10" sheetId="7" r:id="rId3"/>
     <sheet name="dgns_cd910" sheetId="10" r:id="rId4"/>
-    <sheet name="op_hcpcs" sheetId="4" r:id="rId5"/>
-    <sheet name="op_rev" sheetId="5" r:id="rId6"/>
-    <sheet name="medpar_prcdr_cd9" sheetId="3" r:id="rId7"/>
-    <sheet name="medpar_prcdr_cd10" sheetId="2" r:id="rId8"/>
-    <sheet name="medpar_prcdr_cd910" sheetId="9" r:id="rId9"/>
-    <sheet name="medpar_msdrg_cd" sheetId="1" r:id="rId10"/>
+    <sheet name="pvt_dgns_cd910" sheetId="11" r:id="rId5"/>
+    <sheet name="op_hcpcs" sheetId="4" r:id="rId6"/>
+    <sheet name="op_rev" sheetId="5" r:id="rId7"/>
+    <sheet name="medpar_prcdr_cd9" sheetId="3" r:id="rId8"/>
+    <sheet name="medpar_prcdr_cd10" sheetId="2" r:id="rId9"/>
+    <sheet name="medpar_prcdr_cd910" sheetId="9" r:id="rId10"/>
+    <sheet name="medpar_msdrg_cd" sheetId="1" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="144">
   <si>
     <t>Year</t>
   </si>
@@ -489,7 +490,7 @@
     <numFmt numFmtId="164" formatCode="###,###,###,###"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -545,6 +546,14 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -754,7 +763,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -816,6 +825,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1134,7 +1144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A62DE23-4D66-1E4F-A1AC-4723528D521C}">
   <dimension ref="A6:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
@@ -1528,10 +1538,279 @@
     <hyperlink ref="B39" location="medpar_prcdr_cd10!A1" display="medpar_prcdr_cd10" xr:uid="{DAB98821-8287-444E-9447-87F558BA2B3D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E235A38-1ADA-044E-A861-67B8CFC30150}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B2" s="6">
+        <v>20427</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2468</v>
+      </c>
+      <c r="D2" s="5">
+        <f t="shared" ref="D2:D12" si="0">B2+C2</f>
+        <v>22895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B3" s="6">
+        <v>19021</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2235</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" si="0"/>
+        <v>21256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B4" s="6">
+        <v>17383</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2064</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>19447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B5" s="6">
+        <v>15826</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1961</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>17787</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B6" s="6">
+        <v>14890</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1854</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>16744</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B7" s="6">
+        <v>14271</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1760</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>16031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B8" s="6">
+        <v>14128</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1891</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>16019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B9" s="6">
+        <v>14033</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1997</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>16030</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B10" s="6">
+        <v>13586</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1847</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>15433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B11" s="6">
+        <v>12504</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2508</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>15012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B12" s="6">
+        <v>12839</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2537</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>15376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B13" s="6">
+        <f>medpar_prcdr_cd10!C2+medpar_prcdr_cd10!F2</f>
+        <v>2833</v>
+      </c>
+      <c r="C13" s="6">
+        <f>medpar_prcdr_cd10!D2+medpar_prcdr_cd10!G2</f>
+        <v>758</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:D16" si="1">B13+C13</f>
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B14" s="6">
+        <f>medpar_prcdr_cd10!C3+medpar_prcdr_cd10!F3</f>
+        <v>12775</v>
+      </c>
+      <c r="C14" s="6">
+        <f>medpar_prcdr_cd10!D3+medpar_prcdr_cd10!G3</f>
+        <v>3411</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="1"/>
+        <v>16186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B15" s="6">
+        <f>medpar_prcdr_cd10!C4+medpar_prcdr_cd10!F4</f>
+        <v>13217</v>
+      </c>
+      <c r="C15" s="6">
+        <f>medpar_prcdr_cd10!D4+medpar_prcdr_cd10!G4</f>
+        <v>3709</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="1"/>
+        <v>16926</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B16" s="6">
+        <f>medpar_prcdr_cd10!C5+medpar_prcdr_cd10!F5</f>
+        <v>14079</v>
+      </c>
+      <c r="C16" s="6">
+        <f>medpar_prcdr_cd10!D5+medpar_prcdr_cd10!G5</f>
+        <v>4101</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="1"/>
+        <v>18180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AD3F94-C563-354F-A187-1324E61AB9CC}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -1768,6 +2047,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1776,7 +2056,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2391,6 +2671,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2643,6 +2924,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2651,7 +2933,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection sqref="A1:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3415,6 +3697,678 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E025A27C-E36C-4A4C-A61A-C71C85BCCEC8}">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:13" s="35" customFormat="1">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>2004</v>
+      </c>
+      <c r="B2">
+        <v>53817</v>
+      </c>
+      <c r="C2">
+        <v>1302</v>
+      </c>
+      <c r="D2">
+        <v>52515</v>
+      </c>
+      <c r="E2">
+        <v>120285</v>
+      </c>
+      <c r="F2">
+        <v>25685</v>
+      </c>
+      <c r="G2">
+        <v>94600</v>
+      </c>
+      <c r="H2">
+        <v>601425</v>
+      </c>
+      <c r="I2">
+        <v>59530</v>
+      </c>
+      <c r="J2">
+        <v>6720</v>
+      </c>
+      <c r="K2">
+        <v>52810</v>
+      </c>
+      <c r="L2">
+        <v>297650</v>
+      </c>
+      <c r="M2">
+        <v>952892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>2005</v>
+      </c>
+      <c r="B3">
+        <v>50762</v>
+      </c>
+      <c r="C3">
+        <v>1429</v>
+      </c>
+      <c r="D3">
+        <v>49333</v>
+      </c>
+      <c r="E3">
+        <v>149890</v>
+      </c>
+      <c r="F3">
+        <v>31245</v>
+      </c>
+      <c r="G3">
+        <v>118645</v>
+      </c>
+      <c r="H3">
+        <v>749450</v>
+      </c>
+      <c r="I3">
+        <v>66275</v>
+      </c>
+      <c r="J3">
+        <v>6665</v>
+      </c>
+      <c r="K3">
+        <v>59610</v>
+      </c>
+      <c r="L3">
+        <v>331375</v>
+      </c>
+      <c r="M3">
+        <v>1131587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>2006</v>
+      </c>
+      <c r="B4">
+        <v>45950</v>
+      </c>
+      <c r="C4">
+        <v>1490</v>
+      </c>
+      <c r="D4">
+        <v>44460</v>
+      </c>
+      <c r="E4">
+        <v>155965</v>
+      </c>
+      <c r="F4">
+        <v>29305</v>
+      </c>
+      <c r="G4">
+        <v>126660</v>
+      </c>
+      <c r="H4">
+        <v>779825</v>
+      </c>
+      <c r="I4">
+        <v>69250</v>
+      </c>
+      <c r="J4">
+        <v>7630</v>
+      </c>
+      <c r="K4">
+        <v>61620</v>
+      </c>
+      <c r="L4">
+        <v>346250</v>
+      </c>
+      <c r="M4">
+        <v>1172025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>2007</v>
+      </c>
+      <c r="B5">
+        <v>42453</v>
+      </c>
+      <c r="C5">
+        <v>1433</v>
+      </c>
+      <c r="D5">
+        <v>41020</v>
+      </c>
+      <c r="E5">
+        <v>169800</v>
+      </c>
+      <c r="F5">
+        <v>35650</v>
+      </c>
+      <c r="G5">
+        <v>134150</v>
+      </c>
+      <c r="H5">
+        <v>849000</v>
+      </c>
+      <c r="I5">
+        <v>69075</v>
+      </c>
+      <c r="J5">
+        <v>7615</v>
+      </c>
+      <c r="K5">
+        <v>61460</v>
+      </c>
+      <c r="L5">
+        <v>345375</v>
+      </c>
+      <c r="M5">
+        <v>1236828</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>2008</v>
+      </c>
+      <c r="B6">
+        <v>40727</v>
+      </c>
+      <c r="C6">
+        <v>1510</v>
+      </c>
+      <c r="D6">
+        <v>39217</v>
+      </c>
+      <c r="E6">
+        <v>162770</v>
+      </c>
+      <c r="F6">
+        <v>37915</v>
+      </c>
+      <c r="G6">
+        <v>124855</v>
+      </c>
+      <c r="H6">
+        <v>813850</v>
+      </c>
+      <c r="I6">
+        <v>70825</v>
+      </c>
+      <c r="J6">
+        <v>7505</v>
+      </c>
+      <c r="K6">
+        <v>63320</v>
+      </c>
+      <c r="L6">
+        <v>354125</v>
+      </c>
+      <c r="M6">
+        <v>1208702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>2009</v>
+      </c>
+      <c r="B7">
+        <v>38083</v>
+      </c>
+      <c r="C7">
+        <v>1476</v>
+      </c>
+      <c r="D7">
+        <v>36607</v>
+      </c>
+      <c r="E7">
+        <v>177215</v>
+      </c>
+      <c r="F7">
+        <v>47590</v>
+      </c>
+      <c r="G7">
+        <v>129625</v>
+      </c>
+      <c r="H7">
+        <v>886075</v>
+      </c>
+      <c r="I7">
+        <v>75005</v>
+      </c>
+      <c r="J7">
+        <v>7220</v>
+      </c>
+      <c r="K7">
+        <v>67785</v>
+      </c>
+      <c r="L7">
+        <v>375025</v>
+      </c>
+      <c r="M7">
+        <v>1299183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>2010</v>
+      </c>
+      <c r="B8">
+        <v>37595</v>
+      </c>
+      <c r="C8">
+        <v>1619</v>
+      </c>
+      <c r="D8">
+        <v>35976</v>
+      </c>
+      <c r="E8">
+        <v>183500</v>
+      </c>
+      <c r="F8">
+        <v>51800</v>
+      </c>
+      <c r="G8">
+        <v>131700</v>
+      </c>
+      <c r="H8">
+        <v>917500</v>
+      </c>
+      <c r="I8">
+        <v>81015</v>
+      </c>
+      <c r="J8">
+        <v>6330</v>
+      </c>
+      <c r="K8">
+        <v>74685</v>
+      </c>
+      <c r="L8">
+        <v>405075</v>
+      </c>
+      <c r="M8">
+        <v>1360170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>2011</v>
+      </c>
+      <c r="B9">
+        <v>92440</v>
+      </c>
+      <c r="C9">
+        <v>1834</v>
+      </c>
+      <c r="D9">
+        <v>90606</v>
+      </c>
+      <c r="E9">
+        <v>181770</v>
+      </c>
+      <c r="F9">
+        <v>45275</v>
+      </c>
+      <c r="G9">
+        <v>136495</v>
+      </c>
+      <c r="H9">
+        <v>908850</v>
+      </c>
+      <c r="I9">
+        <v>100120</v>
+      </c>
+      <c r="J9">
+        <v>7315</v>
+      </c>
+      <c r="K9">
+        <v>92805</v>
+      </c>
+      <c r="L9">
+        <v>500600</v>
+      </c>
+      <c r="M9">
+        <v>1501890</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>2012</v>
+      </c>
+      <c r="B10">
+        <v>93705</v>
+      </c>
+      <c r="C10">
+        <v>1756</v>
+      </c>
+      <c r="D10">
+        <v>91949</v>
+      </c>
+      <c r="E10">
+        <v>195560</v>
+      </c>
+      <c r="F10">
+        <v>55420</v>
+      </c>
+      <c r="G10">
+        <v>140140</v>
+      </c>
+      <c r="H10">
+        <v>977800</v>
+      </c>
+      <c r="I10">
+        <v>105060</v>
+      </c>
+      <c r="J10">
+        <v>7635</v>
+      </c>
+      <c r="K10">
+        <v>97425</v>
+      </c>
+      <c r="L10">
+        <v>525300</v>
+      </c>
+      <c r="M10">
+        <v>1596805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>2013</v>
+      </c>
+      <c r="B11">
+        <v>88356</v>
+      </c>
+      <c r="C11">
+        <v>1986</v>
+      </c>
+      <c r="D11">
+        <v>86370</v>
+      </c>
+      <c r="E11">
+        <v>226975</v>
+      </c>
+      <c r="F11">
+        <v>58125</v>
+      </c>
+      <c r="G11">
+        <v>168850</v>
+      </c>
+      <c r="H11">
+        <v>1134875</v>
+      </c>
+      <c r="I11">
+        <v>109555</v>
+      </c>
+      <c r="J11">
+        <v>7840</v>
+      </c>
+      <c r="K11">
+        <v>101715</v>
+      </c>
+      <c r="L11">
+        <v>547775</v>
+      </c>
+      <c r="M11">
+        <v>1771006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>2014</v>
+      </c>
+      <c r="B12">
+        <v>88795</v>
+      </c>
+      <c r="C12">
+        <v>2138</v>
+      </c>
+      <c r="D12">
+        <v>86657</v>
+      </c>
+      <c r="E12">
+        <v>276295</v>
+      </c>
+      <c r="F12">
+        <v>63885</v>
+      </c>
+      <c r="G12">
+        <v>212410</v>
+      </c>
+      <c r="H12">
+        <v>1381475</v>
+      </c>
+      <c r="I12">
+        <v>116060</v>
+      </c>
+      <c r="J12">
+        <v>8640</v>
+      </c>
+      <c r="K12">
+        <v>107420</v>
+      </c>
+      <c r="L12">
+        <v>580300</v>
+      </c>
+      <c r="M12">
+        <v>2050570</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>2015</v>
+      </c>
+      <c r="B13">
+        <v>90980</v>
+      </c>
+      <c r="C13">
+        <v>1874</v>
+      </c>
+      <c r="D13">
+        <v>89106</v>
+      </c>
+      <c r="E13">
+        <v>296365</v>
+      </c>
+      <c r="F13">
+        <v>66525</v>
+      </c>
+      <c r="G13">
+        <v>229840</v>
+      </c>
+      <c r="H13">
+        <v>1481825</v>
+      </c>
+      <c r="I13">
+        <v>129515</v>
+      </c>
+      <c r="J13">
+        <v>10760</v>
+      </c>
+      <c r="K13">
+        <v>118755</v>
+      </c>
+      <c r="L13">
+        <v>647575</v>
+      </c>
+      <c r="M13">
+        <v>2220380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>2016</v>
+      </c>
+      <c r="B14">
+        <v>113022</v>
+      </c>
+      <c r="C14">
+        <v>2276</v>
+      </c>
+      <c r="D14">
+        <v>110746</v>
+      </c>
+      <c r="E14">
+        <v>382230</v>
+      </c>
+      <c r="F14">
+        <v>86645</v>
+      </c>
+      <c r="G14">
+        <v>295585</v>
+      </c>
+      <c r="H14">
+        <v>1911150</v>
+      </c>
+      <c r="I14">
+        <v>156960</v>
+      </c>
+      <c r="J14">
+        <v>15980</v>
+      </c>
+      <c r="K14">
+        <v>140980</v>
+      </c>
+      <c r="L14">
+        <v>784800</v>
+      </c>
+      <c r="M14">
+        <v>2808972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>2017</v>
+      </c>
+      <c r="B15">
+        <v>117390</v>
+      </c>
+      <c r="C15">
+        <v>2410</v>
+      </c>
+      <c r="D15">
+        <v>114980</v>
+      </c>
+      <c r="E15">
+        <v>436700</v>
+      </c>
+      <c r="F15">
+        <v>84225</v>
+      </c>
+      <c r="G15">
+        <v>352475</v>
+      </c>
+      <c r="H15">
+        <v>2183500</v>
+      </c>
+      <c r="I15">
+        <v>173930</v>
+      </c>
+      <c r="J15">
+        <v>16190</v>
+      </c>
+      <c r="K15">
+        <v>157740</v>
+      </c>
+      <c r="L15">
+        <v>869650</v>
+      </c>
+      <c r="M15">
+        <v>3170540</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>2018</v>
+      </c>
+      <c r="B16">
+        <v>117283</v>
+      </c>
+      <c r="C16">
+        <v>2409</v>
+      </c>
+      <c r="D16">
+        <v>114874</v>
+      </c>
+      <c r="E16">
+        <v>494645</v>
+      </c>
+      <c r="F16">
+        <v>86065</v>
+      </c>
+      <c r="G16">
+        <v>408580</v>
+      </c>
+      <c r="H16">
+        <v>2473225</v>
+      </c>
+      <c r="I16">
+        <v>186520</v>
+      </c>
+      <c r="J16">
+        <v>17930</v>
+      </c>
+      <c r="K16">
+        <v>168590</v>
+      </c>
+      <c r="L16">
+        <v>932600</v>
+      </c>
+      <c r="M16">
+        <v>3523108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B9AFD2-AD7E-8546-9F2F-BDA5D10B489F}">
   <dimension ref="A1:AK16"/>
   <sheetViews>
@@ -5336,10 +6290,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C80F745-227C-1D41-A412-3A6F153CDB7A}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -5665,10 +6620,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14BD142-2C3F-DB44-8EE9-109693D1898C}">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -5962,10 +6918,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C912FF-C732-C346-8CDD-9FBC43D11B5E}">
   <dimension ref="A1:H17"/>
   <sheetViews>
@@ -6163,272 +7120,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E235A38-1ADA-044E-A861-67B8CFC30150}">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B2" s="6">
-        <v>20427</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2468</v>
-      </c>
-      <c r="D2" s="5">
-        <f t="shared" ref="D2:D12" si="0">B2+C2</f>
-        <v>22895</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B3" s="6">
-        <v>19021</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2235</v>
-      </c>
-      <c r="D3" s="5">
-        <f t="shared" si="0"/>
-        <v>21256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B4" s="6">
-        <v>17383</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2064</v>
-      </c>
-      <c r="D4" s="5">
-        <f t="shared" si="0"/>
-        <v>19447</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B5" s="6">
-        <v>15826</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1961</v>
-      </c>
-      <c r="D5" s="5">
-        <f t="shared" si="0"/>
-        <v>17787</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B6" s="6">
-        <v>14890</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1854</v>
-      </c>
-      <c r="D6" s="5">
-        <f t="shared" si="0"/>
-        <v>16744</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B7" s="6">
-        <v>14271</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1760</v>
-      </c>
-      <c r="D7" s="5">
-        <f t="shared" si="0"/>
-        <v>16031</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B8" s="6">
-        <v>14128</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1891</v>
-      </c>
-      <c r="D8" s="5">
-        <f t="shared" si="0"/>
-        <v>16019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B9" s="6">
-        <v>14033</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1997</v>
-      </c>
-      <c r="D9" s="5">
-        <f t="shared" si="0"/>
-        <v>16030</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B10" s="6">
-        <v>13586</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1847</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" si="0"/>
-        <v>15433</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B11" s="6">
-        <v>12504</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2508</v>
-      </c>
-      <c r="D11" s="5">
-        <f t="shared" si="0"/>
-        <v>15012</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B12" s="6">
-        <v>12839</v>
-      </c>
-      <c r="C12" s="6">
-        <v>2537</v>
-      </c>
-      <c r="D12" s="5">
-        <f t="shared" si="0"/>
-        <v>15376</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B13" s="6">
-        <f>medpar_prcdr_cd10!C2+medpar_prcdr_cd10!F2</f>
-        <v>2833</v>
-      </c>
-      <c r="C13" s="6">
-        <f>medpar_prcdr_cd10!D2+medpar_prcdr_cd10!G2</f>
-        <v>758</v>
-      </c>
-      <c r="D13" s="5">
-        <f t="shared" ref="D13:D16" si="1">B13+C13</f>
-        <v>3591</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B14" s="6">
-        <f>medpar_prcdr_cd10!C3+medpar_prcdr_cd10!F3</f>
-        <v>12775</v>
-      </c>
-      <c r="C14" s="6">
-        <f>medpar_prcdr_cd10!D3+medpar_prcdr_cd10!G3</f>
-        <v>3411</v>
-      </c>
-      <c r="D14" s="5">
-        <f t="shared" si="1"/>
-        <v>16186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B15" s="6">
-        <f>medpar_prcdr_cd10!C4+medpar_prcdr_cd10!F4</f>
-        <v>13217</v>
-      </c>
-      <c r="C15" s="6">
-        <f>medpar_prcdr_cd10!D4+medpar_prcdr_cd10!G4</f>
-        <v>3709</v>
-      </c>
-      <c r="D15" s="5">
-        <f t="shared" si="1"/>
-        <v>16926</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B16" s="6">
-        <f>medpar_prcdr_cd10!C5+medpar_prcdr_cd10!F5</f>
-        <v>14079</v>
-      </c>
-      <c r="C16" s="6">
-        <f>medpar_prcdr_cd10!D5+medpar_prcdr_cd10!G5</f>
-        <v>4101</v>
-      </c>
-      <c r="D16" s="5">
-        <f t="shared" si="1"/>
-        <v>18180</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>